--- a/raw_data/20200818_saline/20200818_Sensor2_Test_27.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_27.xlsx
@@ -1,870 +1,1286 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B63BE6-C562-48DA-BF6E-427AA09B3CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>23772.710138</v>
+        <v>23772.710137999999</v>
       </c>
       <c r="B2" s="1">
-        <v>6.603531</v>
+        <v>6.6035310000000003</v>
       </c>
       <c r="C2" s="1">
-        <v>1243.300000</v>
+        <v>1243.3</v>
       </c>
       <c r="D2" s="1">
-        <v>-310.944000</v>
+        <v>-310.94400000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>23783.114252</v>
+        <v>23783.114251999999</v>
       </c>
       <c r="G2" s="1">
-        <v>6.606421</v>
+        <v>6.6064210000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1268.660000</v>
+        <v>1268.6600000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-267.977000</v>
+        <v>-267.97699999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>23793.845651</v>
       </c>
       <c r="L2" s="1">
-        <v>6.609402</v>
+        <v>6.6094020000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>1304.340000</v>
+        <v>1304.3399999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.047000</v>
+        <v>-203.047</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>23804.336072</v>
+        <v>23804.336071999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>6.612316</v>
+        <v>6.6123159999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1316.090000</v>
+        <v>1316.09</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.491000</v>
+        <v>-184.49100000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>23814.685593</v>
+        <v>23814.685592999998</v>
       </c>
       <c r="V2" s="1">
-        <v>6.615190</v>
+        <v>6.6151900000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1328.970000</v>
+        <v>1328.97</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.897000</v>
+        <v>-170.89699999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>23824.836187</v>
+        <v>23824.836187000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>6.618010</v>
+        <v>6.6180099999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1346.050000</v>
+        <v>1346.05</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.608000</v>
+        <v>-168.608</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>23834.712527</v>
       </c>
       <c r="AF2" s="1">
-        <v>6.620753</v>
+        <v>6.6207529999999997</v>
       </c>
       <c r="AG2" s="1">
-        <v>1358.770000</v>
+        <v>1358.77</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.248000</v>
+        <v>-178.24799999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>23844.818031</v>
+        <v>23844.818030999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>6.623561</v>
+        <v>6.6235609999999996</v>
       </c>
       <c r="AL2" s="1">
-        <v>1379.190000</v>
+        <v>1379.19</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.082000</v>
+        <v>-208.08199999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>23855.393218</v>
+        <v>23855.393218000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.626498</v>
+        <v>6.6264979999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1400.660000</v>
+        <v>1400.66</v>
       </c>
       <c r="AR2" s="1">
-        <v>-251.929000</v>
+        <v>-251.929</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>23865.971397</v>
+        <v>23865.971397000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>6.629436</v>
+        <v>6.6294360000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1425.040000</v>
+        <v>1425.04</v>
       </c>
       <c r="AW2" s="1">
-        <v>-311.937000</v>
+        <v>-311.93700000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>23876.764341</v>
+        <v>23876.764340999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>6.632435</v>
+        <v>6.6324350000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1444.250000</v>
+        <v>1444.25</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.132000</v>
+        <v>-364.13200000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>23887.851912</v>
+        <v>23887.851911999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>6.635514</v>
+        <v>6.6355139999999997</v>
       </c>
       <c r="BF2" s="1">
-        <v>1529.130000</v>
+        <v>1529.13</v>
       </c>
       <c r="BG2" s="1">
-        <v>-612.912000</v>
+        <v>-612.91200000000003</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>23898.935513</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.638593</v>
+        <v>6.6385930000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1683.380000</v>
+        <v>1683.38</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1058.890000</v>
+        <v>-1058.8900000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>23910.375737</v>
+        <v>23910.375736999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.641771</v>
+        <v>6.6417710000000003</v>
       </c>
       <c r="BP2" s="1">
-        <v>1977.800000</v>
+        <v>1977.8</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1831.300000</v>
+        <v>-1831.3</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>23921.118092</v>
+        <v>23921.118092000001</v>
       </c>
       <c r="BT2" s="1">
         <v>6.644755</v>
       </c>
       <c r="BU2" s="1">
-        <v>2364.980000</v>
+        <v>2364.98</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2725.830000</v>
+        <v>-2725.83</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>23931.913517</v>
+        <v>23931.913517000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>6.647754</v>
+        <v>6.6477539999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2847.210000</v>
+        <v>2847.21</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3698.070000</v>
+        <v>-3698.07</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>23943.173694</v>
+        <v>23943.173694000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.650882</v>
+        <v>6.6508820000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>4274.100000</v>
+        <v>4274.1000000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6054.980000</v>
+        <v>-6054.98</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>23773.068737</v>
+        <v>23773.068737000001</v>
       </c>
       <c r="B3" s="1">
-        <v>6.603630</v>
+        <v>6.6036299999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1243.200000</v>
+        <v>1243.2</v>
       </c>
       <c r="D3" s="1">
-        <v>-310.833000</v>
+        <v>-310.83300000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>23783.763009</v>
+        <v>23783.763008999998</v>
       </c>
       <c r="G3" s="1">
-        <v>6.606601</v>
+        <v>6.6066010000000004</v>
       </c>
       <c r="H3" s="1">
-        <v>1268.270000</v>
+        <v>1268.27</v>
       </c>
       <c r="I3" s="1">
-        <v>-266.883000</v>
+        <v>-266.88299999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>23794.265795</v>
+        <v>23794.265794999999</v>
       </c>
       <c r="L3" s="1">
-        <v>6.609518</v>
+        <v>6.6095179999999996</v>
       </c>
       <c r="M3" s="1">
-        <v>1304.300000</v>
+        <v>1304.3</v>
       </c>
       <c r="N3" s="1">
-        <v>-202.882000</v>
+        <v>-202.88200000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>23804.765078</v>
       </c>
       <c r="Q3" s="1">
-        <v>6.612435</v>
+        <v>6.6124349999999996</v>
       </c>
       <c r="R3" s="1">
-        <v>1316.150000</v>
+        <v>1316.15</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.560000</v>
+        <v>-184.56</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>23815.033751</v>
+        <v>23815.033750999999</v>
       </c>
       <c r="V3" s="1">
-        <v>6.615287</v>
+        <v>6.6152870000000004</v>
       </c>
       <c r="W3" s="1">
-        <v>1329.070000</v>
+        <v>1329.07</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.860000</v>
+        <v>-170.86</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>23825.184875</v>
+        <v>23825.184874999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>6.618107</v>
+        <v>6.6181070000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>1346.090000</v>
+        <v>1346.09</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.425000</v>
+        <v>-168.42500000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>23835.090510</v>
+        <v>23835.090510000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.620858</v>
+        <v>6.6208580000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1358.820000</v>
+        <v>1358.82</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.247000</v>
+        <v>-178.24700000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>23845.200433</v>
+        <v>23845.200433000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.623667</v>
+        <v>6.6236670000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>1379.200000</v>
+        <v>1379.2</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.077000</v>
+        <v>-208.077</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>23855.814361</v>
+        <v>23855.814361000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>6.626615</v>
+        <v>6.6266150000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1400.700000</v>
+        <v>1400.7</v>
       </c>
       <c r="AR3" s="1">
-        <v>-251.962000</v>
+        <v>-251.96199999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>23866.081541</v>
@@ -873,1949 +1289,1949 @@
         <v>6.629467</v>
       </c>
       <c r="AV3" s="1">
-        <v>1425.040000</v>
+        <v>1425.04</v>
       </c>
       <c r="AW3" s="1">
-        <v>-311.934000</v>
+        <v>-311.93400000000003</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>23877.192922</v>
+        <v>23877.192921999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>6.632554</v>
+        <v>6.6325539999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1444.230000</v>
+        <v>1444.23</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.125000</v>
+        <v>-364.125</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>23888.215479</v>
+        <v>23888.215478999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.635615</v>
+        <v>6.6356149999999996</v>
       </c>
       <c r="BF3" s="1">
-        <v>1529.110000</v>
+        <v>1529.11</v>
       </c>
       <c r="BG3" s="1">
-        <v>-612.889000</v>
+        <v>-612.88900000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>23899.312505</v>
+        <v>23899.312505000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>6.638698</v>
+        <v>6.6386979999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1683.320000</v>
+        <v>1683.32</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1058.920000</v>
+        <v>-1058.92</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>23910.801305</v>
+        <v>23910.801305000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>6.641889</v>
+        <v>6.6418889999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1977.570000</v>
+        <v>1977.57</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1831.630000</v>
+        <v>-1831.63</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>23921.641371</v>
+        <v>23921.641371000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>6.644900</v>
+        <v>6.6448999999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>2364.430000</v>
+        <v>2364.4299999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2726.330000</v>
+        <v>-2726.33</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>23932.378765</v>
+        <v>23932.378765000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>6.647883</v>
+        <v>6.6478830000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2846.540000</v>
+        <v>2846.54</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3698.130000</v>
+        <v>-3698.13</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>23943.739667</v>
+        <v>23943.739667000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>6.651039</v>
+        <v>6.6510389999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4272.080000</v>
+        <v>4272.08</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6058.680000</v>
+        <v>-6058.68</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>23773.736848</v>
       </c>
       <c r="B4" s="1">
-        <v>6.603816</v>
+        <v>6.6038160000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1243.010000</v>
+        <v>1243.01</v>
       </c>
       <c r="D4" s="1">
-        <v>-310.887000</v>
+        <v>-310.887</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>23784.143408</v>
       </c>
       <c r="G4" s="1">
-        <v>6.606707</v>
+        <v>6.6067070000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1268.770000</v>
+        <v>1268.77</v>
       </c>
       <c r="I4" s="1">
-        <v>-267.671000</v>
+        <v>-267.67099999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>23794.613233</v>
       </c>
       <c r="L4" s="1">
-        <v>6.609615</v>
+        <v>6.6096149999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>1304.710000</v>
+        <v>1304.71</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.956000</v>
+        <v>-202.95599999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>23805.114292</v>
+        <v>23805.114291999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.612532</v>
+        <v>6.6125319999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1316.170000</v>
+        <v>1316.17</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.639000</v>
+        <v>-184.63900000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>23815.377480</v>
+        <v>23815.377479999999</v>
       </c>
       <c r="V4" s="1">
-        <v>6.615383</v>
+        <v>6.6153829999999996</v>
       </c>
       <c r="W4" s="1">
-        <v>1328.950000</v>
+        <v>1328.95</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.876000</v>
+        <v>-170.876</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>23825.536041</v>
+        <v>23825.536040999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>6.618204</v>
+        <v>6.6182040000000004</v>
       </c>
       <c r="AB4" s="1">
-        <v>1346.040000</v>
+        <v>1346.04</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.551000</v>
+        <v>-168.55099999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>23835.516541</v>
+        <v>23835.516541000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.620977</v>
+        <v>6.6209769999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1358.730000</v>
+        <v>1358.73</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.230000</v>
+        <v>-178.23</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>23845.815471</v>
+        <v>23845.815471000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.623838</v>
+        <v>6.6238380000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1379.170000</v>
+        <v>1379.17</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.077000</v>
+        <v>-208.077</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>23856.155073</v>
+        <v>23856.155073000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.626710</v>
+        <v>6.6267100000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1400.680000</v>
+        <v>1400.68</v>
       </c>
       <c r="AR4" s="1">
-        <v>-251.960000</v>
+        <v>-251.96</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>23866.430693</v>
+        <v>23866.430692999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>6.629564</v>
+        <v>6.6295640000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>1425.040000</v>
+        <v>1425.04</v>
       </c>
       <c r="AW4" s="1">
-        <v>-311.936000</v>
+        <v>-311.93599999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>23877.554006</v>
+        <v>23877.554005999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.632654</v>
+        <v>6.6326539999999996</v>
       </c>
       <c r="BA4" s="1">
-        <v>1444.240000</v>
+        <v>1444.24</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.115000</v>
+        <v>-364.11500000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>23888.577559</v>
+        <v>23888.577559000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>6.635716</v>
+        <v>6.6357160000000004</v>
       </c>
       <c r="BF4" s="1">
-        <v>1529.110000</v>
+        <v>1529.11</v>
       </c>
       <c r="BG4" s="1">
-        <v>-612.891000</v>
+        <v>-612.89099999999996</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>23900.064407</v>
+        <v>23900.064407000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>6.638907</v>
+        <v>6.6389069999999997</v>
       </c>
       <c r="BK4" s="1">
-        <v>1683.280000</v>
+        <v>1683.28</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1058.930000</v>
+        <v>-1058.93</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>23911.217978</v>
+        <v>23911.217978000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>6.642005</v>
+        <v>6.6420050000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1977.590000</v>
+        <v>1977.59</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1831.610000</v>
+        <v>-1831.61</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>23922.072425</v>
+        <v>23922.072424999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>6.645020</v>
+        <v>6.6450199999999997</v>
       </c>
       <c r="BU4" s="1">
-        <v>2363.840000</v>
+        <v>2363.84</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2726.400000</v>
+        <v>-2726.4</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>23932.826156</v>
+        <v>23932.826155999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>6.648007</v>
+        <v>6.6480069999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2847.100000</v>
+        <v>2847.1</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3698.640000</v>
+        <v>-3698.64</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>23944.258445</v>
+        <v>23944.258444999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>6.651183</v>
+        <v>6.6511829999999996</v>
       </c>
       <c r="CE4" s="1">
-        <v>4266.090000</v>
+        <v>4266.09</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6044.150000</v>
+        <v>-6044.15</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>23774.094958</v>
+        <v>23774.094958000001</v>
       </c>
       <c r="B5" s="1">
-        <v>6.603915</v>
+        <v>6.6039149999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-310.648000</v>
+        <v>-310.64800000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>23784.487666</v>
+        <v>23784.487666000001</v>
       </c>
       <c r="G5" s="1">
-        <v>6.606802</v>
+        <v>6.6068020000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1269.000000</v>
+        <v>1269</v>
       </c>
       <c r="I5" s="1">
-        <v>-267.911000</v>
+        <v>-267.911</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>23794.958178</v>
+        <v>23794.958178000001</v>
       </c>
       <c r="L5" s="1">
-        <v>6.609711</v>
+        <v>6.6097109999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1304.840000</v>
+        <v>1304.8399999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.936000</v>
+        <v>-202.93600000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>23805.461460</v>
+        <v>23805.461459999999</v>
       </c>
       <c r="Q5" s="1">
         <v>6.612628</v>
       </c>
       <c r="R5" s="1">
-        <v>1316.100000</v>
+        <v>1316.1</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.589000</v>
+        <v>-184.589</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>23815.794118</v>
+        <v>23815.794118000002</v>
       </c>
       <c r="V5" s="1">
-        <v>6.615498</v>
+        <v>6.6154979999999997</v>
       </c>
       <c r="W5" s="1">
-        <v>1329.030000</v>
+        <v>1329.03</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.874000</v>
+        <v>-170.874</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>23825.960632</v>
+        <v>23825.960631999998</v>
       </c>
       <c r="AA5" s="1">
         <v>6.618322</v>
       </c>
       <c r="AB5" s="1">
-        <v>1346.230000</v>
+        <v>1346.23</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.631000</v>
+        <v>-168.631</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>23835.780413</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.621050</v>
+        <v>6.6210500000000003</v>
       </c>
       <c r="AG5" s="1">
-        <v>1358.800000</v>
+        <v>1358.8</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.170000</v>
+        <v>-178.17</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>23846.248479</v>
+        <v>23846.248479000002</v>
       </c>
       <c r="AK5" s="1">
         <v>6.623958</v>
       </c>
       <c r="AL5" s="1">
-        <v>1379.200000</v>
+        <v>1379.2</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.081000</v>
+        <v>-208.08099999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>23856.513680</v>
+        <v>23856.51368</v>
       </c>
       <c r="AP5" s="1">
-        <v>6.626809</v>
+        <v>6.6268089999999997</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1400.670000</v>
+        <v>1400.67</v>
       </c>
       <c r="AR5" s="1">
-        <v>-251.936000</v>
+        <v>-251.93600000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>23866.792771</v>
       </c>
       <c r="AU5" s="1">
-        <v>6.629665</v>
+        <v>6.6296650000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1425.040000</v>
+        <v>1425.04</v>
       </c>
       <c r="AW5" s="1">
-        <v>-311.977000</v>
+        <v>-311.97699999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>23877.911621</v>
+        <v>23877.911620999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>6.632753</v>
+        <v>6.6327530000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1444.280000</v>
+        <v>1444.28</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.125000</v>
+        <v>-364.125</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>23889.299237</v>
+        <v>23889.299236999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>6.635916</v>
+        <v>6.6359159999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1529.100000</v>
+        <v>1529.1</v>
       </c>
       <c r="BG5" s="1">
-        <v>-612.921000</v>
+        <v>-612.92100000000005</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>23900.439878</v>
+        <v>23900.439878000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>6.639011</v>
       </c>
       <c r="BK5" s="1">
-        <v>1683.260000</v>
+        <v>1683.26</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1059.030000</v>
+        <v>-1059.03</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>23911.616728</v>
+        <v>23911.616728000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>6.642116</v>
+        <v>6.6421159999999997</v>
       </c>
       <c r="BP5" s="1">
-        <v>1977.650000</v>
+        <v>1977.65</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1831.690000</v>
+        <v>-1831.69</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>23922.487545</v>
       </c>
       <c r="BT5" s="1">
-        <v>6.645135</v>
+        <v>6.6451349999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>2363.280000</v>
+        <v>2363.2800000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2726.250000</v>
+        <v>-2726.25</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>23933.255692</v>
+        <v>23933.255691999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>6.648127</v>
+        <v>6.6481269999999997</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2846.880000</v>
+        <v>2846.88</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3698.760000</v>
+        <v>-3698.76</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>23945.076380</v>
+        <v>23945.076379999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>6.651410</v>
+        <v>6.6514100000000003</v>
       </c>
       <c r="CE5" s="1">
-        <v>4253.010000</v>
+        <v>4253.01</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6050.220000</v>
+        <v>-6050.22</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>23774.435747</v>
       </c>
       <c r="B6" s="1">
-        <v>6.604010</v>
+        <v>6.6040099999999997</v>
       </c>
       <c r="C6" s="1">
-        <v>1243.170000</v>
+        <v>1243.17</v>
       </c>
       <c r="D6" s="1">
-        <v>-310.655000</v>
+        <v>-310.65499999999997</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>23784.834335</v>
       </c>
       <c r="G6" s="1">
-        <v>6.606898</v>
+        <v>6.6068980000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1268.170000</v>
+        <v>1268.17</v>
       </c>
       <c r="I6" s="1">
-        <v>-268.299000</v>
+        <v>-268.29899999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>23795.381788</v>
+        <v>23795.381787999999</v>
       </c>
       <c r="L6" s="1">
-        <v>6.609828</v>
+        <v>6.6098280000000003</v>
       </c>
       <c r="M6" s="1">
-        <v>1304.600000</v>
+        <v>1304.5999999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.120000</v>
+        <v>-203.12</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>23805.878101</v>
+        <v>23805.878100999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>6.612744</v>
+        <v>6.6127440000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>1316.160000</v>
+        <v>1316.16</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.623000</v>
+        <v>-184.62299999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>23816.069430</v>
+        <v>23816.06943</v>
       </c>
       <c r="V6" s="1">
-        <v>6.615575</v>
+        <v>6.6155749999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>1328.960000</v>
+        <v>1328.96</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.984000</v>
+        <v>-170.98400000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>23826.251769</v>
+        <v>23826.251768999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>6.618403</v>
+        <v>6.6184029999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>1346.000000</v>
+        <v>1346</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.571000</v>
+        <v>-168.571</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>23836.122155</v>
+        <v>23836.122155000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.621145</v>
+        <v>6.6211450000000003</v>
       </c>
       <c r="AG6" s="1">
-        <v>1358.700000</v>
+        <v>1358.7</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.143000</v>
+        <v>-178.143</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>23846.595711</v>
+        <v>23846.595711000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>6.624054</v>
+        <v>6.6240540000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1379.210000</v>
+        <v>1379.21</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.115000</v>
+        <v>-208.11500000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>23856.873776</v>
       </c>
       <c r="AP6" s="1">
-        <v>6.626909</v>
+        <v>6.6269090000000004</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1400.680000</v>
+        <v>1400.68</v>
       </c>
       <c r="AR6" s="1">
-        <v>-251.940000</v>
+        <v>-251.94</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>23867.527874</v>
+        <v>23867.527873999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>6.629869</v>
+        <v>6.6298690000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>1425.020000</v>
+        <v>1425.02</v>
       </c>
       <c r="AW6" s="1">
-        <v>-311.976000</v>
+        <v>-311.976</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>23878.634755</v>
+        <v>23878.634754999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>6.632954</v>
+        <v>6.6329539999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1444.240000</v>
+        <v>1444.24</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.098000</v>
+        <v>-364.09800000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>23889.687613</v>
+        <v>23889.687612999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>6.636024</v>
+        <v>6.6360239999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1529.120000</v>
+        <v>1529.12</v>
       </c>
       <c r="BG6" s="1">
-        <v>-612.901000</v>
+        <v>-612.90099999999995</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>23900.817334</v>
+        <v>23900.817333999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.639116</v>
+        <v>6.6391159999999996</v>
       </c>
       <c r="BK6" s="1">
-        <v>1683.300000</v>
+        <v>1683.3</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1058.970000</v>
+        <v>-1058.97</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>23912.038825</v>
       </c>
       <c r="BO6" s="1">
-        <v>6.642233</v>
+        <v>6.6422330000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1977.500000</v>
+        <v>1977.5</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1831.620000</v>
+        <v>-1831.62</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>23923.227080</v>
+        <v>23923.227080000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>6.645341</v>
+        <v>6.6453410000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>2362.930000</v>
+        <v>2362.9299999999998</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2725.930000</v>
+        <v>-2725.93</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>23933.690714</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.648247</v>
+        <v>6.6482469999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2846.200000</v>
+        <v>2846.2</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3698.360000</v>
+        <v>-3698.36</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>23945.294621</v>
+        <v>23945.294621000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.651471</v>
+        <v>6.6514709999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4260.720000</v>
+        <v>4260.72</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6062.120000</v>
+        <v>-6062.12</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>23774.778941</v>
       </c>
       <c r="B7" s="1">
-        <v>6.604105</v>
+        <v>6.6041049999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>1243.230000</v>
+        <v>1243.23</v>
       </c>
       <c r="D7" s="1">
-        <v>-310.710000</v>
+        <v>-310.70999999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>23785.263376</v>
+        <v>23785.263375999999</v>
       </c>
       <c r="G7" s="1">
-        <v>6.607018</v>
+        <v>6.6070180000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1269.100000</v>
+        <v>1269.0999999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-266.968000</v>
+        <v>-266.96800000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>23795.662001</v>
+        <v>23795.662001000001</v>
       </c>
       <c r="L7" s="1">
-        <v>6.609906</v>
+        <v>6.6099059999999996</v>
       </c>
       <c r="M7" s="1">
-        <v>1304.240000</v>
+        <v>1304.24</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.229000</v>
+        <v>-203.22900000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>23806.172723</v>
       </c>
       <c r="Q7" s="1">
-        <v>6.612826</v>
+        <v>6.6128260000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1316.060000</v>
+        <v>1316.06</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.603000</v>
+        <v>-184.60300000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>23816.413126</v>
+        <v>23816.413125999999</v>
       </c>
       <c r="V7" s="1">
-        <v>6.615670</v>
+        <v>6.6156699999999997</v>
       </c>
       <c r="W7" s="1">
-        <v>1329.000000</v>
+        <v>1329</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.839000</v>
+        <v>-170.839</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>23826.587065</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.618496</v>
+        <v>6.6184960000000004</v>
       </c>
       <c r="AB7" s="1">
-        <v>1346.050000</v>
+        <v>1346.05</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.613000</v>
+        <v>-168.613</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>23836.462907</v>
+        <v>23836.462907000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>6.621240</v>
+        <v>6.6212400000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>1358.810000</v>
+        <v>1358.81</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.225000</v>
+        <v>-178.22499999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>23847.291069</v>
+        <v>23847.291068999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>6.624248</v>
+        <v>6.6242479999999997</v>
       </c>
       <c r="AL7" s="1">
-        <v>1379.170000</v>
+        <v>1379.17</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.085000</v>
+        <v>-208.08500000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>23857.591983</v>
+        <v>23857.591982999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>6.627109</v>
+        <v>6.6271089999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1400.650000</v>
+        <v>1400.65</v>
       </c>
       <c r="AR7" s="1">
-        <v>-251.942000</v>
+        <v>-251.94200000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>23867.902829</v>
+        <v>23867.902828999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.629973</v>
+        <v>6.6299729999999997</v>
       </c>
       <c r="AV7" s="1">
-        <v>1425.020000</v>
+        <v>1425.02</v>
       </c>
       <c r="AW7" s="1">
-        <v>-311.963000</v>
+        <v>-311.96300000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>23879.013205</v>
+        <v>23879.013204999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>6.633059</v>
+        <v>6.6330590000000003</v>
       </c>
       <c r="BA7" s="1">
-        <v>1444.250000</v>
+        <v>1444.25</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.097000</v>
+        <v>-364.09699999999998</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>23890.069525</v>
+        <v>23890.069524999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>6.636130</v>
+        <v>6.6361299999999996</v>
       </c>
       <c r="BF7" s="1">
-        <v>1529.150000</v>
+        <v>1529.15</v>
       </c>
       <c r="BG7" s="1">
-        <v>-612.913000</v>
+        <v>-612.91300000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>23901.514246</v>
+        <v>23901.514245999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>6.639310</v>
+        <v>6.63931</v>
       </c>
       <c r="BK7" s="1">
-        <v>1683.250000</v>
+        <v>1683.25</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1058.990000</v>
+        <v>-1058.99</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>23912.736052</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.642427</v>
+        <v>6.6424269999999996</v>
       </c>
       <c r="BP7" s="1">
-        <v>1977.340000</v>
+        <v>1977.34</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1831.710000</v>
+        <v>-1831.71</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>23923.344634</v>
+        <v>23923.344634000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>6.645374</v>
+        <v>6.6453740000000003</v>
       </c>
       <c r="BU7" s="1">
-        <v>2362.450000</v>
+        <v>2362.4499999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2725.630000</v>
+        <v>-2725.63</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>23934.096906</v>
+        <v>23934.096905999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>6.648360</v>
+        <v>6.6483600000000003</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2846.080000</v>
+        <v>2846.08</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3699.560000</v>
+        <v>-3699.56</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>23945.815896</v>
       </c>
       <c r="CD7" s="1">
-        <v>6.651616</v>
+        <v>6.6516159999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>4253.440000</v>
+        <v>4253.4399999999996</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6062.270000</v>
+        <v>-6062.27</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>23775.222860</v>
+        <v>23775.222860000002</v>
       </c>
       <c r="B8" s="1">
-        <v>6.604229</v>
+        <v>6.6042290000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1242.960000</v>
+        <v>1242.96</v>
       </c>
       <c r="D8" s="1">
-        <v>-311.024000</v>
+        <v>-311.024</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>23785.544112</v>
       </c>
       <c r="G8" s="1">
-        <v>6.607096</v>
+        <v>6.6070960000000003</v>
       </c>
       <c r="H8" s="1">
-        <v>1268.110000</v>
+        <v>1268.1099999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-267.609000</v>
+        <v>-267.60899999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>23796.007714</v>
+        <v>23796.007713999999</v>
       </c>
       <c r="L8" s="1">
-        <v>6.610002</v>
+        <v>6.6100019999999997</v>
       </c>
       <c r="M8" s="1">
-        <v>1304.070000</v>
+        <v>1304.07</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.933000</v>
+        <v>-202.93299999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>23806.517939</v>
+        <v>23806.517939000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>6.612922</v>
+        <v>6.6129220000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>1316.110000</v>
+        <v>1316.11</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.554000</v>
+        <v>-184.554</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>23816.756886</v>
+        <v>23816.756885999999</v>
       </c>
       <c r="V8" s="1">
-        <v>6.615766</v>
+        <v>6.6157659999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>1329.090000</v>
+        <v>1329.09</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.916000</v>
+        <v>-170.916</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>23826.946701</v>
+        <v>23826.946701000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>6.618596</v>
+        <v>6.6185960000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1345.960000</v>
+        <v>1345.96</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.567000</v>
+        <v>-168.56700000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>23837.154363</v>
+        <v>23837.154363000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.621432</v>
+        <v>6.6214320000000004</v>
       </c>
       <c r="AG8" s="1">
-        <v>1358.750000</v>
+        <v>1358.75</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.212000</v>
+        <v>-178.21199999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>23847.642083</v>
+        <v>23847.642082999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.624345</v>
+        <v>6.6243449999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1379.180000</v>
+        <v>1379.18</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.064000</v>
+        <v>-208.06399999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>23857.953568</v>
+        <v>23857.953568000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>6.627209</v>
+        <v>6.6272089999999997</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1400.700000</v>
+        <v>1400.7</v>
       </c>
       <c r="AR8" s="1">
-        <v>-251.951000</v>
+        <v>-251.95099999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>23868.273450</v>
+        <v>23868.273450000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>6.630076</v>
+        <v>6.6300759999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1425.030000</v>
+        <v>1425.03</v>
       </c>
       <c r="AW8" s="1">
-        <v>-311.940000</v>
+        <v>-311.94</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>23879.389666</v>
+        <v>23879.389665999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6.633164</v>
+        <v>6.6331639999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1444.270000</v>
+        <v>1444.27</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.112000</v>
+        <v>-364.11200000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>23890.734691</v>
+        <v>23890.734691000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>6.636315</v>
+        <v>6.6363149999999997</v>
       </c>
       <c r="BF8" s="1">
-        <v>1529.130000</v>
+        <v>1529.13</v>
       </c>
       <c r="BG8" s="1">
-        <v>-612.912000</v>
+        <v>-612.91200000000003</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>23901.969045</v>
+        <v>23901.969045000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>6.639436</v>
+        <v>6.6394359999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1683.240000</v>
+        <v>1683.24</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1058.910000</v>
+        <v>-1058.9100000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>23912.852278</v>
+        <v>23912.852277999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>6.642459</v>
+        <v>6.6424589999999997</v>
       </c>
       <c r="BP8" s="1">
-        <v>1977.340000</v>
+        <v>1977.34</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1831.720000</v>
+        <v>-1831.72</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>23923.784594</v>
+        <v>23923.784594000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>6.645496</v>
+        <v>6.6454959999999996</v>
       </c>
       <c r="BU8" s="1">
-        <v>2362.070000</v>
+        <v>2362.0700000000002</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2725.570000</v>
+        <v>-2725.57</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>23934.525483</v>
+        <v>23934.525483000001</v>
       </c>
       <c r="BY8" s="1">
         <v>6.648479</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2846.650000</v>
+        <v>2846.65</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3698.980000</v>
+        <v>-3698.98</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>23946.364955</v>
+        <v>23946.364955000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>6.651768</v>
+        <v>6.6517679999999997</v>
       </c>
       <c r="CE8" s="1">
-        <v>4252.560000</v>
+        <v>4252.5600000000004</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6049.930000</v>
+        <v>-6049.93</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>23775.470861</v>
+        <v>23775.470861000002</v>
       </c>
       <c r="B9" s="1">
-        <v>6.604297</v>
+        <v>6.6042969999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1242.850000</v>
+        <v>1242.8499999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-310.738000</v>
+        <v>-310.738</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>23785.887342</v>
+        <v>23785.887342000002</v>
       </c>
       <c r="G9" s="1">
-        <v>6.607191</v>
+        <v>6.6071910000000003</v>
       </c>
       <c r="H9" s="1">
-        <v>1268.430000</v>
+        <v>1268.43</v>
       </c>
       <c r="I9" s="1">
-        <v>-267.535000</v>
+        <v>-267.53500000000003</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>23796.350448</v>
+        <v>23796.350448000001</v>
       </c>
       <c r="L9" s="1">
-        <v>6.610097</v>
+        <v>6.6100969999999997</v>
       </c>
       <c r="M9" s="1">
-        <v>1304.090000</v>
+        <v>1304.0899999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.830000</v>
+        <v>-202.83</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>23806.868115</v>
+        <v>23806.868115000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.613019</v>
+        <v>6.6130190000000004</v>
       </c>
       <c r="R9" s="1">
-        <v>1316.140000</v>
+        <v>1316.14</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.565000</v>
+        <v>-184.565</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>23817.445302</v>
       </c>
       <c r="V9" s="1">
-        <v>6.615957</v>
+        <v>6.6159569999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1329.020000</v>
+        <v>1329.02</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.828000</v>
+        <v>-170.828</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>23827.642584</v>
+        <v>23827.642584000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.618790</v>
+        <v>6.6187899999999997</v>
       </c>
       <c r="AB9" s="1">
-        <v>1345.860000</v>
+        <v>1345.86</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.502000</v>
+        <v>-168.50200000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>23837.498058</v>
+        <v>23837.498058000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.621527</v>
+        <v>6.6215270000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>1358.680000</v>
+        <v>1358.68</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.116000</v>
+        <v>-178.11600000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>23847.991929</v>
       </c>
       <c r="AK9" s="1">
-        <v>6.624442</v>
+        <v>6.6244420000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>1379.210000</v>
+        <v>1379.21</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.082000</v>
+        <v>-208.08199999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>23858.314158</v>
+        <v>23858.314158000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>6.627309</v>
+        <v>6.6273090000000003</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1400.660000</v>
+        <v>1400.66</v>
       </c>
       <c r="AR9" s="1">
-        <v>-251.935000</v>
+        <v>-251.935</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>23868.945905</v>
       </c>
       <c r="AU9" s="1">
-        <v>6.630263</v>
+        <v>6.6302630000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>1425.060000</v>
+        <v>1425.06</v>
       </c>
       <c r="AW9" s="1">
-        <v>-311.935000</v>
+        <v>-311.935</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>23880.064257</v>
+        <v>23880.064257000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>6.633351</v>
+        <v>6.6333510000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1444.250000</v>
+        <v>1444.25</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.168000</v>
+        <v>-364.16800000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>23891.154773</v>
+        <v>23891.154772999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>6.636432</v>
+        <v>6.6364320000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1529.090000</v>
+        <v>1529.09</v>
       </c>
       <c r="BG9" s="1">
-        <v>-612.898000</v>
+        <v>-612.89800000000002</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>23902.367828</v>
+        <v>23902.367827999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.639547</v>
+        <v>6.6395470000000003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1683.250000</v>
+        <v>1683.25</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1058.910000</v>
+        <v>-1058.9100000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>23913.278358</v>
       </c>
       <c r="BO9" s="1">
-        <v>6.642577</v>
+        <v>6.6425770000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1977.420000</v>
+        <v>1977.42</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1831.550000</v>
+        <v>-1831.55</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>23924.194775</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.645610</v>
+        <v>6.6456099999999996</v>
       </c>
       <c r="BU9" s="1">
-        <v>2362.210000</v>
+        <v>2362.21</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2724.810000</v>
+        <v>-2724.81</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>23934.940601</v>
+        <v>23934.940600999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>6.648595</v>
+        <v>6.6485950000000003</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2846.100000</v>
+        <v>2846.1</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3698.800000</v>
+        <v>-3698.8</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>23946.895673</v>
+        <v>23946.895672999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>6.651915</v>
+        <v>6.6519149999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>4259.330000</v>
+        <v>4259.33</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6062.690000</v>
+        <v>-6062.69</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>23775.810619</v>
       </c>
       <c r="B10" s="1">
-        <v>6.604392</v>
+        <v>6.6043919999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>1242.920000</v>
+        <v>1242.92</v>
       </c>
       <c r="D10" s="1">
-        <v>-310.578000</v>
+        <v>-310.57799999999997</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>23786.233053</v>
       </c>
       <c r="G10" s="1">
-        <v>6.607287</v>
+        <v>6.6072870000000004</v>
       </c>
       <c r="H10" s="1">
-        <v>1267.910000</v>
+        <v>1267.9100000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-267.872000</v>
+        <v>-267.87200000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>23797.044847</v>
+        <v>23797.044847000001</v>
       </c>
       <c r="L10" s="1">
-        <v>6.610290</v>
+        <v>6.61029</v>
       </c>
       <c r="M10" s="1">
-        <v>1304.460000</v>
+        <v>1304.46</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.503000</v>
+        <v>-202.50299999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>23807.564994</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.613212</v>
+        <v>6.6132119999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1316.150000</v>
+        <v>1316.15</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.624000</v>
+        <v>-184.624</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>23817.787572</v>
+        <v>23817.787572000001</v>
       </c>
       <c r="V10" s="1">
-        <v>6.616052</v>
+        <v>6.6160519999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>1328.940000</v>
+        <v>1328.94</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.861000</v>
+        <v>-170.86099999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>23827.992734</v>
+        <v>23827.992733999999</v>
       </c>
       <c r="AA10" s="1">
         <v>6.618887</v>
       </c>
       <c r="AB10" s="1">
-        <v>1345.930000</v>
+        <v>1345.93</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.637000</v>
+        <v>-168.637</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>23837.842911</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.621623</v>
+        <v>6.6216229999999996</v>
       </c>
       <c r="AG10" s="1">
-        <v>1358.810000</v>
+        <v>1358.81</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.214000</v>
+        <v>-178.214</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>23848.645180</v>
+        <v>23848.64518</v>
       </c>
       <c r="AK10" s="1">
-        <v>6.624624</v>
+        <v>6.6246239999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>1379.200000</v>
+        <v>1379.2</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.080000</v>
+        <v>-208.08</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>23858.976813</v>
+        <v>23858.976813000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>6.627494</v>
+        <v>6.6274940000000004</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1400.730000</v>
+        <v>1400.73</v>
       </c>
       <c r="AR10" s="1">
-        <v>-251.906000</v>
+        <v>-251.90600000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>23869.399247</v>
+        <v>23869.399247000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.630389</v>
+        <v>6.6303890000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1425.050000</v>
+        <v>1425.05</v>
       </c>
       <c r="AW10" s="1">
-        <v>-311.956000</v>
+        <v>-311.95600000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>23880.472662</v>
       </c>
       <c r="AZ10" s="1">
-        <v>6.633465</v>
+        <v>6.6334650000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1444.230000</v>
+        <v>1444.23</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.124000</v>
+        <v>-364.12400000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>23891.541650</v>
+        <v>23891.541649999999</v>
       </c>
       <c r="BE10" s="1">
         <v>6.636539</v>
       </c>
       <c r="BF10" s="1">
-        <v>1529.100000</v>
+        <v>1529.1</v>
       </c>
       <c r="BG10" s="1">
-        <v>-612.877000</v>
+        <v>-612.87699999999995</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>23902.746771</v>
+        <v>23902.746770999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>6.639652</v>
+        <v>6.6396519999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1683.230000</v>
+        <v>1683.23</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1058.970000</v>
+        <v>-1058.97</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>23913.675157</v>
+        <v>23913.675157000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>6.642688</v>
+        <v>6.6426879999999997</v>
       </c>
       <c r="BP10" s="1">
-        <v>1977.430000</v>
+        <v>1977.43</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1831.580000</v>
+        <v>-1831.58</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>23924.626823</v>
+        <v>23924.626822999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>6.645730</v>
+        <v>6.6457300000000004</v>
       </c>
       <c r="BU10" s="1">
-        <v>2361.500000</v>
+        <v>2361.5</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2724.980000</v>
+        <v>-2724.98</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>23935.395928</v>
+        <v>23935.395928000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.648721</v>
+        <v>6.6487210000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2846.090000</v>
+        <v>2846.09</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3698.690000</v>
+        <v>-3698.69</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>23947.413528</v>
+        <v>23947.413528000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>6.652059</v>
+        <v>6.6520590000000004</v>
       </c>
       <c r="CE10" s="1">
-        <v>4269.020000</v>
+        <v>4269.0200000000004</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6046.490000</v>
+        <v>-6046.49</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>23776.514940</v>
+        <v>23776.514940000001</v>
       </c>
       <c r="B11" s="1">
-        <v>6.604587</v>
+        <v>6.6045870000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>1243.000000</v>
+        <v>1243</v>
       </c>
       <c r="D11" s="1">
-        <v>-310.621000</v>
+        <v>-310.62099999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>23786.920508</v>
+        <v>23786.920507999999</v>
       </c>
       <c r="G11" s="1">
-        <v>6.607478</v>
+        <v>6.6074780000000004</v>
       </c>
       <c r="H11" s="1">
-        <v>1268.680000</v>
+        <v>1268.68</v>
       </c>
       <c r="I11" s="1">
-        <v>-267.392000</v>
+        <v>-267.392</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>23797.387583</v>
@@ -2824,148 +3240,148 @@
         <v>6.610385</v>
       </c>
       <c r="M11" s="1">
-        <v>1304.530000</v>
+        <v>1304.53</v>
       </c>
       <c r="N11" s="1">
-        <v>-203.029000</v>
+        <v>-203.029</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>23807.913185</v>
+        <v>23807.913185000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.613309</v>
+        <v>6.6133090000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1316.100000</v>
+        <v>1316.1</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.690000</v>
+        <v>-184.69</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>23818.131267</v>
+        <v>23818.131267000001</v>
       </c>
       <c r="V11" s="1">
-        <v>6.616148</v>
+        <v>6.6161479999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1329.020000</v>
+        <v>1329.02</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.861000</v>
+        <v>-170.86099999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>23828.339926</v>
+        <v>23828.339926000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.618983</v>
+        <v>6.6189830000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1345.940000</v>
+        <v>1345.94</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.448000</v>
+        <v>-168.44800000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>23838.500013</v>
+        <v>23838.500013000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.621806</v>
+        <v>6.6218060000000003</v>
       </c>
       <c r="AG11" s="1">
-        <v>1358.760000</v>
+        <v>1358.76</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.233000</v>
+        <v>-178.233</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>23849.035498</v>
+        <v>23849.035498000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>6.624732</v>
+        <v>6.6247319999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1379.180000</v>
+        <v>1379.18</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.085000</v>
+        <v>-208.08500000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>23859.427213</v>
+        <v>23859.427212999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>6.627619</v>
+        <v>6.6276190000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1400.660000</v>
+        <v>1400.66</v>
       </c>
       <c r="AR11" s="1">
-        <v>-251.928000</v>
+        <v>-251.928</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>23869.765295</v>
+        <v>23869.765295000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>6.630490</v>
+        <v>6.63049</v>
       </c>
       <c r="AV11" s="1">
-        <v>1425.050000</v>
+        <v>1425.05</v>
       </c>
       <c r="AW11" s="1">
-        <v>-311.960000</v>
+        <v>-311.95999999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>23880.846454</v>
+        <v>23880.846453999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6.633568</v>
+        <v>6.6335680000000004</v>
       </c>
       <c r="BA11" s="1">
-        <v>1444.220000</v>
+        <v>1444.22</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.095000</v>
+        <v>-364.09500000000003</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>23891.902274</v>
       </c>
       <c r="BE11" s="1">
-        <v>6.636640</v>
+        <v>6.6366399999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1529.150000</v>
+        <v>1529.15</v>
       </c>
       <c r="BG11" s="1">
-        <v>-612.909000</v>
+        <v>-612.90899999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>23903.159474</v>
@@ -2974,210 +3390,210 @@
         <v>6.639767</v>
       </c>
       <c r="BK11" s="1">
-        <v>1683.220000</v>
+        <v>1683.22</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1058.970000</v>
+        <v>-1058.97</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>23914.097718</v>
+        <v>23914.097718000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>6.642805</v>
+        <v>6.6428050000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1977.470000</v>
+        <v>1977.47</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1831.680000</v>
+        <v>-1831.68</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>23925.053880</v>
+        <v>23925.053879999999</v>
       </c>
       <c r="BT11" s="1">
         <v>6.645848</v>
       </c>
       <c r="BU11" s="1">
-        <v>2361.650000</v>
+        <v>2361.65</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2724.600000</v>
+        <v>-2724.6</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>23935.845341</v>
       </c>
       <c r="BY11" s="1">
-        <v>6.648846</v>
+        <v>6.6488459999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2846.420000</v>
+        <v>2846.42</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3698.600000</v>
+        <v>-3698.6</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>23947.955160</v>
+        <v>23947.955160000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.652210</v>
+        <v>6.6522100000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>4249.760000</v>
+        <v>4249.76</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6053.040000</v>
+        <v>-6053.04</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>23776.856714</v>
+        <v>23776.856714000001</v>
       </c>
       <c r="B12" s="1">
-        <v>6.604682</v>
+        <v>6.6046820000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>1242.980000</v>
+        <v>1242.98</v>
       </c>
       <c r="D12" s="1">
-        <v>-310.939000</v>
+        <v>-310.93900000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>23787.266716</v>
+        <v>23787.266715999998</v>
       </c>
       <c r="G12" s="1">
-        <v>6.607574</v>
+        <v>6.6075739999999996</v>
       </c>
       <c r="H12" s="1">
-        <v>1268.410000</v>
+        <v>1268.4100000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-267.838000</v>
+        <v>-267.83800000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>23797.736767</v>
+        <v>23797.736766999999</v>
       </c>
       <c r="L12" s="1">
-        <v>6.610482</v>
+        <v>6.6104820000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>1304.110000</v>
+        <v>1304.1099999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-203.215000</v>
+        <v>-203.215</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>23808.264848</v>
+        <v>23808.264847999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.613407</v>
+        <v>6.6134069999999996</v>
       </c>
       <c r="R12" s="1">
-        <v>1316.080000</v>
+        <v>1316.08</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.612000</v>
+        <v>-184.61199999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>23818.788002</v>
+        <v>23818.788002000001</v>
       </c>
       <c r="V12" s="1">
-        <v>6.616330</v>
+        <v>6.6163299999999996</v>
       </c>
       <c r="W12" s="1">
-        <v>1328.940000</v>
+        <v>1328.94</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.937000</v>
+        <v>-170.93700000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>23828.777893</v>
+        <v>23828.777892999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.619105</v>
+        <v>6.6191050000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1346.090000</v>
+        <v>1346.09</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.594000</v>
+        <v>-168.59399999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>23838.873496</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.621909</v>
+        <v>6.6219089999999996</v>
       </c>
       <c r="AG12" s="1">
-        <v>1358.770000</v>
+        <v>1358.77</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.215000</v>
+        <v>-178.215</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>23849.382203</v>
+        <v>23849.382203000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>6.624828</v>
+        <v>6.6248279999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1379.180000</v>
+        <v>1379.18</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.078000</v>
+        <v>-208.078</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>23859.787804</v>
       </c>
       <c r="AP12" s="1">
-        <v>6.627719</v>
+        <v>6.6277189999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1400.680000</v>
+        <v>1400.68</v>
       </c>
       <c r="AR12" s="1">
-        <v>-251.918000</v>
+        <v>-251.91800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>23870.130847</v>
@@ -3186,799 +3602,799 @@
         <v>6.630592</v>
       </c>
       <c r="AV12" s="1">
-        <v>1425.000000</v>
+        <v>1425</v>
       </c>
       <c r="AW12" s="1">
-        <v>-311.946000</v>
+        <v>-311.94600000000003</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>23881.268512</v>
+        <v>23881.268511999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>6.633686</v>
       </c>
       <c r="BA12" s="1">
-        <v>1444.260000</v>
+        <v>1444.26</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.093000</v>
+        <v>-364.09300000000002</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>23892.324368</v>
+        <v>23892.324368000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>6.636757</v>
+        <v>6.6367570000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1529.130000</v>
+        <v>1529.13</v>
       </c>
       <c r="BG12" s="1">
-        <v>-612.884000</v>
+        <v>-612.88400000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>23903.523042</v>
+        <v>23903.523042000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>6.639868</v>
+        <v>6.6398679999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1683.210000</v>
+        <v>1683.21</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1058.990000</v>
+        <v>-1058.99</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>23914.492570</v>
+        <v>23914.492569999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>6.642915</v>
+        <v>6.6429150000000003</v>
       </c>
       <c r="BP12" s="1">
-        <v>1977.480000</v>
+        <v>1977.48</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1831.540000</v>
+        <v>-1831.54</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>23925.466519</v>
+        <v>23925.466519000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>6.645963</v>
+        <v>6.6459630000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2361.420000</v>
+        <v>2361.42</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2724.050000</v>
+        <v>-2724.05</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>23936.267896</v>
+        <v>23936.267896000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.648963</v>
+        <v>6.6489630000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2846.000000</v>
+        <v>2846</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3697.920000</v>
+        <v>-3697.92</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>23948.492327</v>
       </c>
       <c r="CD12" s="1">
-        <v>6.652359</v>
+        <v>6.6523589999999997</v>
       </c>
       <c r="CE12" s="1">
-        <v>4271.810000</v>
+        <v>4271.8100000000004</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6058.820000</v>
+        <v>-6058.82</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>23777.198921</v>
+        <v>23777.198920999999</v>
       </c>
       <c r="B13" s="1">
-        <v>6.604777</v>
+        <v>6.6047770000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>1242.840000</v>
+        <v>1242.8399999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-311.058000</v>
+        <v>-311.05799999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>23787.611964</v>
       </c>
       <c r="G13" s="1">
-        <v>6.607670</v>
+        <v>6.6076699999999997</v>
       </c>
       <c r="H13" s="1">
-        <v>1269.290000</v>
+        <v>1269.29</v>
       </c>
       <c r="I13" s="1">
-        <v>-267.650000</v>
+        <v>-267.64999999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>23798.388014</v>
       </c>
       <c r="L13" s="1">
-        <v>6.610663</v>
+        <v>6.6106629999999997</v>
       </c>
       <c r="M13" s="1">
-        <v>1304.520000</v>
+        <v>1304.52</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.118000</v>
+        <v>-203.11799999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>23808.933952</v>
+        <v>23808.933951999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.613593</v>
+        <v>6.6135929999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>1316.040000</v>
+        <v>1316.04</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.508000</v>
+        <v>-184.50800000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>23819.159970</v>
+        <v>23819.159970000001</v>
       </c>
       <c r="V13" s="1">
-        <v>6.616433</v>
+        <v>6.6164329999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>1328.900000</v>
+        <v>1328.9</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.987000</v>
+        <v>-170.98699999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>23829.037835</v>
+        <v>23829.037834999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>6.619177</v>
+        <v>6.6191769999999996</v>
       </c>
       <c r="AB13" s="1">
-        <v>1346.020000</v>
+        <v>1346.02</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.464000</v>
+        <v>-168.464</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>23839.216695</v>
+        <v>23839.216694999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.622005</v>
+        <v>6.6220049999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>1358.810000</v>
+        <v>1358.81</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.240000</v>
+        <v>-178.24</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>23849.731915</v>
       </c>
       <c r="AK13" s="1">
-        <v>6.624926</v>
+        <v>6.6249260000000003</v>
       </c>
       <c r="AL13" s="1">
-        <v>1379.190000</v>
+        <v>1379.19</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.079000</v>
+        <v>-208.07900000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>23860.147868</v>
       </c>
       <c r="AP13" s="1">
-        <v>6.627819</v>
+        <v>6.6278189999999997</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1400.660000</v>
+        <v>1400.66</v>
       </c>
       <c r="AR13" s="1">
-        <v>-251.926000</v>
+        <v>-251.92599999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>23870.554430</v>
+        <v>23870.55443</v>
       </c>
       <c r="AU13" s="1">
-        <v>6.630710</v>
+        <v>6.6307099999999997</v>
       </c>
       <c r="AV13" s="1">
-        <v>1425.040000</v>
+        <v>1425.04</v>
       </c>
       <c r="AW13" s="1">
-        <v>-311.933000</v>
+        <v>-311.93299999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>23881.601359</v>
       </c>
       <c r="AZ13" s="1">
-        <v>6.633778</v>
+        <v>6.6337780000000004</v>
       </c>
       <c r="BA13" s="1">
-        <v>1444.250000</v>
+        <v>1444.25</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.141000</v>
+        <v>-364.14100000000002</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>23892.625937</v>
+        <v>23892.625937000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>6.636841</v>
+        <v>6.6368410000000004</v>
       </c>
       <c r="BF13" s="1">
-        <v>1529.120000</v>
+        <v>1529.12</v>
       </c>
       <c r="BG13" s="1">
-        <v>-612.847000</v>
+        <v>-612.84699999999998</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>23903.896498</v>
+        <v>23903.896497999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>6.639971</v>
+        <v>6.6399710000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1683.220000</v>
+        <v>1683.22</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1058.930000</v>
+        <v>-1058.93</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>23914.914666</v>
+        <v>23914.914666000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>6.643032</v>
+        <v>6.6430319999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1977.310000</v>
+        <v>1977.31</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1831.630000</v>
+        <v>-1831.63</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>23925.899525</v>
+        <v>23925.899525000001</v>
       </c>
       <c r="BT13" s="1">
         <v>6.646083</v>
       </c>
       <c r="BU13" s="1">
-        <v>2361.680000</v>
+        <v>2361.6799999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2723.880000</v>
+        <v>-2723.88</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>23936.688039</v>
+        <v>23936.688039000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.649080</v>
+        <v>6.6490799999999997</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2845.530000</v>
+        <v>2845.53</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3698.460000</v>
+        <v>-3698.46</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>23949.034954</v>
+        <v>23949.034953999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>6.652510</v>
+        <v>6.6525100000000004</v>
       </c>
       <c r="CE13" s="1">
-        <v>4252.940000</v>
+        <v>4252.9399999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6043.000000</v>
+        <v>-6043</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>23777.851656</v>
+        <v>23777.851655999999</v>
       </c>
       <c r="B14" s="1">
         <v>6.604959</v>
       </c>
       <c r="C14" s="1">
-        <v>1242.610000</v>
+        <v>1242.6099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-310.993000</v>
+        <v>-310.99299999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>23788.261692</v>
       </c>
       <c r="G14" s="1">
-        <v>6.607850</v>
+        <v>6.60785</v>
       </c>
       <c r="H14" s="1">
-        <v>1268.450000</v>
+        <v>1268.45</v>
       </c>
       <c r="I14" s="1">
-        <v>-268.121000</v>
+        <v>-268.12099999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>23798.771917</v>
+        <v>23798.771916999998</v>
       </c>
       <c r="L14" s="1">
-        <v>6.610770</v>
+        <v>6.6107699999999996</v>
       </c>
       <c r="M14" s="1">
-        <v>1304.370000</v>
+        <v>1304.3699999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.111000</v>
+        <v>-203.11099999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>23809.307935</v>
+        <v>23809.307935000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.613697</v>
+        <v>6.6136970000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>1316.150000</v>
+        <v>1316.15</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.515000</v>
+        <v>-184.51499999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>23819.502706</v>
+        <v>23819.502705999999</v>
       </c>
       <c r="V14" s="1">
-        <v>6.616529</v>
+        <v>6.6165289999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1328.960000</v>
+        <v>1328.96</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.858000</v>
+        <v>-170.858</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>23829.389462</v>
+        <v>23829.389461999999</v>
       </c>
       <c r="AA14" s="1">
         <v>6.619275</v>
       </c>
       <c r="AB14" s="1">
-        <v>1345.980000</v>
+        <v>1345.98</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.402000</v>
+        <v>-168.40199999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>23839.560952</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.622100</v>
+        <v>6.6220999999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>1358.800000</v>
+        <v>1358.8</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.244000</v>
+        <v>-178.244</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>23850.163897</v>
+        <v>23850.163896999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>6.625046</v>
+        <v>6.6250460000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>1379.210000</v>
+        <v>1379.21</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.089000</v>
+        <v>-208.089</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>23860.563515</v>
+        <v>23860.563515000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.627934</v>
+        <v>6.6279339999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1400.660000</v>
+        <v>1400.66</v>
       </c>
       <c r="AR14" s="1">
-        <v>-251.934000</v>
+        <v>-251.934</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>23870.860958</v>
+        <v>23870.860958000001</v>
       </c>
       <c r="AU14" s="1">
         <v>6.630795</v>
       </c>
       <c r="AV14" s="1">
-        <v>1425.050000</v>
+        <v>1425.05</v>
       </c>
       <c r="AW14" s="1">
-        <v>-311.935000</v>
+        <v>-311.935</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>23881.960927</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.633878</v>
+        <v>6.6338780000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1444.260000</v>
+        <v>1444.26</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.065000</v>
+        <v>-364.065</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>23892.986993</v>
+        <v>23892.986992999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.636941</v>
+        <v>6.6369410000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1529.100000</v>
+        <v>1529.1</v>
       </c>
       <c r="BG14" s="1">
-        <v>-612.868000</v>
+        <v>-612.86800000000005</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>23904.273489</v>
+        <v>23904.273488999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.640076</v>
+        <v>6.6400759999999996</v>
       </c>
       <c r="BK14" s="1">
-        <v>1683.260000</v>
+        <v>1683.26</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1058.940000</v>
+        <v>-1058.94</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>23915.302014</v>
+        <v>23915.302014000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>6.643139</v>
+        <v>6.6431389999999997</v>
       </c>
       <c r="BP14" s="1">
-        <v>1977.270000</v>
+        <v>1977.27</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1831.690000</v>
+        <v>-1831.69</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>23926.326084</v>
       </c>
       <c r="BT14" s="1">
-        <v>6.646202</v>
+        <v>6.6462019999999997</v>
       </c>
       <c r="BU14" s="1">
-        <v>2361.270000</v>
+        <v>2361.27</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2723.600000</v>
+        <v>-2723.6</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>23937.114567</v>
+        <v>23937.114567000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>6.649198</v>
+        <v>6.6491980000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2845.870000</v>
+        <v>2845.87</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3699.050000</v>
+        <v>-3699.05</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>23949.572087</v>
       </c>
       <c r="CD14" s="1">
-        <v>6.652659</v>
+        <v>6.6526589999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4259.040000</v>
+        <v>4259.04</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6061.540000</v>
+        <v>-6061.54</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>23778.225178</v>
+        <v>23778.225178000001</v>
       </c>
       <c r="B15" s="1">
-        <v>6.605063</v>
+        <v>6.6050630000000004</v>
       </c>
       <c r="C15" s="1">
-        <v>1242.860000</v>
+        <v>1242.8599999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-310.774000</v>
+        <v>-310.774</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>23788.644602</v>
       </c>
       <c r="G15" s="1">
-        <v>6.607957</v>
+        <v>6.6079569999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1268.140000</v>
+        <v>1268.1400000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-268.193000</v>
+        <v>-268.19299999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>23799.116668</v>
+        <v>23799.116667999999</v>
       </c>
       <c r="L15" s="1">
-        <v>6.610866</v>
+        <v>6.6108659999999997</v>
       </c>
       <c r="M15" s="1">
-        <v>1304.610000</v>
+        <v>1304.6099999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.111000</v>
+        <v>-203.11099999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>23809.661087</v>
       </c>
       <c r="Q15" s="1">
-        <v>6.613795</v>
+        <v>6.6137949999999996</v>
       </c>
       <c r="R15" s="1">
-        <v>1316.130000</v>
+        <v>1316.13</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.591000</v>
+        <v>-184.59100000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>23819.847921</v>
       </c>
       <c r="V15" s="1">
-        <v>6.616624</v>
+        <v>6.6166239999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>1328.900000</v>
+        <v>1328.9</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.947000</v>
+        <v>-170.947</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>23829.805108</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.619390</v>
+        <v>6.6193900000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1346.090000</v>
+        <v>1346.09</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.491000</v>
+        <v>-168.49100000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>23839.976567</v>
+        <v>23839.976567000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.622216</v>
+        <v>6.6222159999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1358.740000</v>
+        <v>1358.74</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.227000</v>
+        <v>-178.227</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>23850.430746</v>
+        <v>23850.430746000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>6.625120</v>
+        <v>6.6251199999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1379.200000</v>
+        <v>1379.2</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.081000</v>
+        <v>-208.08099999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>23860.866570</v>
+        <v>23860.866569999998</v>
       </c>
       <c r="AP15" s="1">
         <v>6.628018</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1400.670000</v>
+        <v>1400.67</v>
       </c>
       <c r="AR15" s="1">
-        <v>-251.914000</v>
+        <v>-251.91399999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>23871.224564</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.630896</v>
+        <v>6.6308959999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1425.020000</v>
+        <v>1425.02</v>
       </c>
       <c r="AW15" s="1">
-        <v>-311.908000</v>
+        <v>-311.90800000000002</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>23882.321526</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6.633978</v>
+        <v>6.6339779999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1444.230000</v>
+        <v>1444.23</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.096000</v>
+        <v>-364.096</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>23893.348576</v>
@@ -3987,1480 +4403,1480 @@
         <v>6.637041</v>
       </c>
       <c r="BF15" s="1">
-        <v>1529.110000</v>
+        <v>1529.11</v>
       </c>
       <c r="BG15" s="1">
-        <v>-612.877000</v>
+        <v>-612.87699999999995</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>23905.022913</v>
+        <v>23905.022913000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>6.640284</v>
+        <v>6.6402840000000003</v>
       </c>
       <c r="BK15" s="1">
-        <v>1683.160000</v>
+        <v>1683.16</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1058.950000</v>
+        <v>-1058.95</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>23916.161570</v>
+        <v>23916.16157</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.643378</v>
+        <v>6.6433780000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1977.360000</v>
+        <v>1977.36</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1831.490000</v>
+        <v>-1831.49</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>23926.738261</v>
+        <v>23926.738260999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>6.646316</v>
+        <v>6.6463159999999997</v>
       </c>
       <c r="BU15" s="1">
-        <v>2361.500000</v>
+        <v>2361.5</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2723.010000</v>
+        <v>-2723.01</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>23937.530213</v>
+        <v>23937.530212999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>6.649314</v>
+        <v>6.6493140000000004</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2845.810000</v>
+        <v>2845.81</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3698.960000</v>
+        <v>-3698.96</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>23950.112762</v>
+        <v>23950.112762000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.652809</v>
+        <v>6.6528090000000004</v>
       </c>
       <c r="CE15" s="1">
-        <v>4268.640000</v>
+        <v>4268.6400000000003</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6046.370000</v>
+        <v>-6046.37</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>23778.569896</v>
+        <v>23778.569896000001</v>
       </c>
       <c r="B16" s="1">
-        <v>6.605158</v>
+        <v>6.6051580000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>1242.980000</v>
+        <v>1242.98</v>
       </c>
       <c r="D16" s="1">
-        <v>-310.961000</v>
+        <v>-310.96100000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>23788.987338</v>
+        <v>23788.987337999999</v>
       </c>
       <c r="G16" s="1">
-        <v>6.608052</v>
+        <v>6.6080519999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>1268.760000</v>
+        <v>1268.76</v>
       </c>
       <c r="I16" s="1">
-        <v>-268.317000</v>
+        <v>-268.31700000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>23799.460364</v>
+        <v>23799.460363999999</v>
       </c>
       <c r="L16" s="1">
-        <v>6.610961</v>
+        <v>6.6109609999999996</v>
       </c>
       <c r="M16" s="1">
-        <v>1304.540000</v>
+        <v>1304.54</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.039000</v>
+        <v>-203.03899999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>23810.007331</v>
+        <v>23810.007331000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.613891</v>
+        <v>6.6138909999999997</v>
       </c>
       <c r="R16" s="1">
-        <v>1316.150000</v>
+        <v>1316.15</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.611000</v>
+        <v>-184.61099999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>23820.258140</v>
+        <v>23820.258140000002</v>
       </c>
       <c r="V16" s="1">
-        <v>6.616738</v>
+        <v>6.6167379999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>1329.000000</v>
+        <v>1329</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.885000</v>
+        <v>-170.88499999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>23830.097251</v>
+        <v>23830.097250999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>6.619471</v>
+        <v>6.6194709999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1346.010000</v>
+        <v>1346.01</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.455000</v>
+        <v>-168.45500000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>23840.256806</v>
+        <v>23840.256806000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.622294</v>
+        <v>6.6222940000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1358.740000</v>
+        <v>1358.74</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.183000</v>
+        <v>-178.18299999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>23850.777970</v>
+        <v>23850.777969999999</v>
       </c>
       <c r="AK16" s="1">
         <v>6.625216</v>
       </c>
       <c r="AL16" s="1">
-        <v>1379.180000</v>
+        <v>1379.18</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.075000</v>
+        <v>-208.07499999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>23861.229146</v>
+        <v>23861.229146000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>6.628119</v>
+        <v>6.6281189999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1400.660000</v>
+        <v>1400.66</v>
       </c>
       <c r="AR16" s="1">
-        <v>-251.917000</v>
+        <v>-251.917</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>23871.590076</v>
       </c>
       <c r="AU16" s="1">
-        <v>6.630997</v>
+        <v>6.6309969999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>1425.040000</v>
+        <v>1425.04</v>
       </c>
       <c r="AW16" s="1">
-        <v>-311.945000</v>
+        <v>-311.94499999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>23883.040719</v>
+        <v>23883.040719000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6.634178</v>
+        <v>6.6341780000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>1444.250000</v>
+        <v>1444.25</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.135000</v>
+        <v>-364.13499999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>23894.069791</v>
+        <v>23894.069791000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>6.637242</v>
+        <v>6.6372419999999996</v>
       </c>
       <c r="BF16" s="1">
-        <v>1529.070000</v>
+        <v>1529.07</v>
       </c>
       <c r="BG16" s="1">
-        <v>-612.829000</v>
+        <v>-612.82899999999995</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>23905.396896</v>
+        <v>23905.396895999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.640388</v>
+        <v>6.6403879999999997</v>
       </c>
       <c r="BK16" s="1">
-        <v>1683.160000</v>
+        <v>1683.16</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1058.880000</v>
+        <v>-1058.8800000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>23916.544513</v>
+        <v>23916.544513000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>6.643485</v>
+        <v>6.6434850000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1977.380000</v>
+        <v>1977.38</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1831.520000</v>
+        <v>-1831.52</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>23927.168108</v>
+        <v>23927.168108000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>6.646436</v>
+        <v>6.6464359999999996</v>
       </c>
       <c r="BU16" s="1">
-        <v>2361.260000</v>
+        <v>2361.2600000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2722.980000</v>
+        <v>-2722.98</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>23938.286613</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.649524</v>
+        <v>6.6495240000000004</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2845.900000</v>
+        <v>2845.9</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3698.770000</v>
+        <v>-3698.77</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>23950.799312</v>
+        <v>23950.799311999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>6.653000</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="CE16" s="1">
-        <v>4261.600000</v>
+        <v>4261.6000000000004</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6063.320000</v>
+        <v>-6063.32</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>23778.914834</v>
+        <v>23778.914833999999</v>
       </c>
       <c r="B17" s="1">
-        <v>6.605254</v>
+        <v>6.6052540000000004</v>
       </c>
       <c r="C17" s="1">
-        <v>1242.710000</v>
+        <v>1242.71</v>
       </c>
       <c r="D17" s="1">
-        <v>-311.022000</v>
+        <v>-311.02199999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>23789.333545</v>
+        <v>23789.333545000001</v>
       </c>
       <c r="G17" s="1">
-        <v>6.608148</v>
+        <v>6.6081479999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1268.130000</v>
+        <v>1268.1300000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-268.423000</v>
+        <v>-268.423</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>23799.875547</v>
       </c>
       <c r="L17" s="1">
-        <v>6.611077</v>
+        <v>6.6110769999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1304.560000</v>
+        <v>1304.56</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.275000</v>
+        <v>-203.27500000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>23810.434387</v>
+        <v>23810.434387000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>6.614010</v>
+        <v>6.6140100000000004</v>
       </c>
       <c r="R17" s="1">
-        <v>1316.070000</v>
+        <v>1316.07</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.629000</v>
+        <v>-184.62899999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>23820.554752</v>
       </c>
       <c r="V17" s="1">
-        <v>6.616821</v>
+        <v>6.6168209999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1329.050000</v>
+        <v>1329.05</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.795000</v>
+        <v>-170.79499999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>23830.445971</v>
+        <v>23830.445971000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>6.619568</v>
+        <v>6.6195680000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1346.040000</v>
+        <v>1346.04</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.531000</v>
+        <v>-168.53100000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>23840.601525</v>
+        <v>23840.601524999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>6.622389</v>
+        <v>6.6223890000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1358.790000</v>
+        <v>1358.79</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.299000</v>
+        <v>-178.29900000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>23851.130104</v>
       </c>
       <c r="AK17" s="1">
-        <v>6.625314</v>
+        <v>6.6253140000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>1379.190000</v>
+        <v>1379.19</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.110000</v>
+        <v>-208.11</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>23861.590235</v>
       </c>
       <c r="AP17" s="1">
-        <v>6.628220</v>
+        <v>6.6282199999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1400.680000</v>
+        <v>1400.68</v>
       </c>
       <c r="AR17" s="1">
-        <v>-251.928000</v>
+        <v>-251.928</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>23872.315725</v>
       </c>
       <c r="AU17" s="1">
-        <v>6.631199</v>
+        <v>6.6311989999999996</v>
       </c>
       <c r="AV17" s="1">
-        <v>1425.040000</v>
+        <v>1425.04</v>
       </c>
       <c r="AW17" s="1">
-        <v>-311.916000</v>
+        <v>-311.916</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>23883.417709</v>
+        <v>23883.417709000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>6.634283</v>
+        <v>6.6342829999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1444.240000</v>
+        <v>1444.24</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.149000</v>
+        <v>-364.149</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>23894.459118</v>
+        <v>23894.459117999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>6.637350</v>
+        <v>6.6373499999999996</v>
       </c>
       <c r="BF17" s="1">
-        <v>1529.120000</v>
+        <v>1529.12</v>
       </c>
       <c r="BG17" s="1">
-        <v>-612.783000</v>
+        <v>-612.78300000000002</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>23905.773855</v>
+        <v>23905.773854999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>6.640493</v>
+        <v>6.6404930000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1683.240000</v>
+        <v>1683.24</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1058.930000</v>
+        <v>-1058.93</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>23917.242386</v>
+        <v>23917.242386000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>6.643678</v>
+        <v>6.6436780000000004</v>
       </c>
       <c r="BP17" s="1">
-        <v>1977.440000</v>
+        <v>1977.44</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1831.410000</v>
+        <v>-1831.41</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>23927.909810</v>
+        <v>23927.909810000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>6.646642</v>
+        <v>6.6466419999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2361.850000</v>
+        <v>2361.85</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2722.750000</v>
+        <v>-2722.75</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>23938.428998</v>
+        <v>23938.428997999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>6.649564</v>
+        <v>6.6495639999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2846.480000</v>
+        <v>2846.48</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3698.720000</v>
+        <v>-3698.72</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>23951.193509</v>
+        <v>23951.193509000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>6.653109</v>
+        <v>6.6531089999999997</v>
       </c>
       <c r="CE17" s="1">
-        <v>4261.240000</v>
+        <v>4261.24</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6061.150000</v>
+        <v>-6061.15</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>23779.342135</v>
+        <v>23779.342134999999</v>
       </c>
       <c r="B18" s="1">
-        <v>6.605373</v>
+        <v>6.6053730000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>1243.170000</v>
+        <v>1243.17</v>
       </c>
       <c r="D18" s="1">
-        <v>-310.587000</v>
+        <v>-310.58699999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>23789.752205</v>
+        <v>23789.752205000001</v>
       </c>
       <c r="G18" s="1">
-        <v>6.608265</v>
+        <v>6.6082650000000003</v>
       </c>
       <c r="H18" s="1">
-        <v>1267.930000</v>
+        <v>1267.93</v>
       </c>
       <c r="I18" s="1">
-        <v>-267.664000</v>
+        <v>-267.66399999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>23800.153803</v>
+        <v>23800.153803000001</v>
       </c>
       <c r="L18" s="1">
         <v>6.611154</v>
       </c>
       <c r="M18" s="1">
-        <v>1304.800000</v>
+        <v>1304.8</v>
       </c>
       <c r="N18" s="1">
-        <v>-202.954000</v>
+        <v>-202.95400000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>23810.711869</v>
+        <v>23810.711868999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.614087</v>
+        <v>6.6140869999999996</v>
       </c>
       <c r="R18" s="1">
-        <v>1316.100000</v>
+        <v>1316.1</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.599000</v>
+        <v>-184.59899999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>23820.899439</v>
+        <v>23820.899439000001</v>
       </c>
       <c r="V18" s="1">
-        <v>6.616917</v>
+        <v>6.6169169999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1328.980000</v>
+        <v>1328.98</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.930000</v>
+        <v>-170.93</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>23830.795619</v>
       </c>
       <c r="AA18" s="1">
-        <v>6.619665</v>
+        <v>6.6196650000000004</v>
       </c>
       <c r="AB18" s="1">
-        <v>1346.020000</v>
+        <v>1346.02</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.541000</v>
+        <v>-168.541</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>23840.945750</v>
+        <v>23840.945749999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>6.622485</v>
+        <v>6.6224850000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>1358.780000</v>
+        <v>1358.78</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.241000</v>
+        <v>-178.24100000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>23851.824007</v>
+        <v>23851.824006999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.625507</v>
+        <v>6.6255069999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>1379.180000</v>
+        <v>1379.18</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.078000</v>
+        <v>-208.078</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>23862.303481</v>
+        <v>23862.303480999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>6.628418</v>
+        <v>6.6284179999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1400.650000</v>
+        <v>1400.65</v>
       </c>
       <c r="AR18" s="1">
-        <v>-251.930000</v>
+        <v>-251.93</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>23872.706571</v>
+        <v>23872.706570999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>6.631307</v>
+        <v>6.6313069999999996</v>
       </c>
       <c r="AV18" s="1">
-        <v>1425.060000</v>
+        <v>1425.06</v>
       </c>
       <c r="AW18" s="1">
-        <v>-311.927000</v>
+        <v>-311.92700000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>23883.804060</v>
+        <v>23883.804059999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>6.634390</v>
+        <v>6.6343899999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1444.280000</v>
+        <v>1444.28</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.123000</v>
+        <v>-364.12299999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>23894.837070</v>
+        <v>23894.837070000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>6.637455</v>
+        <v>6.6374550000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1529.100000</v>
+        <v>1529.1</v>
       </c>
       <c r="BG18" s="1">
-        <v>-612.835000</v>
+        <v>-612.83500000000004</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>23906.476686</v>
+        <v>23906.476686000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.640688</v>
+        <v>6.6406879999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1683.200000</v>
+        <v>1683.2</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1058.920000</v>
+        <v>-1058.92</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>23917.361888</v>
+        <v>23917.361887999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>6.643712</v>
+        <v>6.6437119999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1977.220000</v>
+        <v>1977.22</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1831.450000</v>
+        <v>-1831.45</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>23928.039762</v>
       </c>
       <c r="BT18" s="1">
-        <v>6.646678</v>
+        <v>6.6466779999999996</v>
       </c>
       <c r="BU18" s="1">
-        <v>2361.400000</v>
+        <v>2361.4</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2722.360000</v>
+        <v>-2722.36</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>23938.852580</v>
+        <v>23938.852579999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>6.649681</v>
+        <v>6.6496810000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2846.290000</v>
+        <v>2846.29</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3698.110000</v>
+        <v>-3698.11</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>23951.711331</v>
+        <v>23951.711330999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>6.653253</v>
+        <v>6.6532530000000003</v>
       </c>
       <c r="CE18" s="1">
-        <v>4267.770000</v>
+        <v>4267.7700000000004</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6048.450000</v>
+        <v>-6048.45</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>23779.621879</v>
+        <v>23779.621878999998</v>
       </c>
       <c r="B19" s="1">
-        <v>6.605451</v>
+        <v>6.6054510000000004</v>
       </c>
       <c r="C19" s="1">
-        <v>1243.010000</v>
+        <v>1243.01</v>
       </c>
       <c r="D19" s="1">
-        <v>-310.566000</v>
+        <v>-310.56599999999997</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>23790.032906</v>
       </c>
       <c r="G19" s="1">
-        <v>6.608342</v>
+        <v>6.6083420000000004</v>
       </c>
       <c r="H19" s="1">
-        <v>1268.320000</v>
+        <v>1268.32</v>
       </c>
       <c r="I19" s="1">
-        <v>-268.261000</v>
+        <v>-268.26100000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>23800.499483</v>
       </c>
       <c r="L19" s="1">
-        <v>6.611250</v>
+        <v>6.6112500000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1304.310000</v>
+        <v>1304.31</v>
       </c>
       <c r="N19" s="1">
-        <v>-203.307000</v>
+        <v>-203.30699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>23811.062187</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.614184</v>
+        <v>6.6141839999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>1316.010000</v>
+        <v>1316.01</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.456000</v>
+        <v>-184.45599999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>23821.246176</v>
+        <v>23821.246176000001</v>
       </c>
       <c r="V19" s="1">
         <v>6.617013</v>
       </c>
       <c r="W19" s="1">
-        <v>1328.950000</v>
+        <v>1328.95</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.908000</v>
+        <v>-170.90799999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>23831.491045</v>
+        <v>23831.491044999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.619859</v>
+        <v>6.6198589999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1346.080000</v>
+        <v>1346.08</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.552000</v>
+        <v>-168.55199999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>23841.631253</v>
       </c>
       <c r="AF19" s="1">
-        <v>6.622675</v>
+        <v>6.6226750000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1358.860000</v>
+        <v>1358.86</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.250000</v>
+        <v>-178.25</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>23852.173190</v>
+        <v>23852.173190000001</v>
       </c>
       <c r="AK19" s="1">
         <v>6.625604</v>
       </c>
       <c r="AL19" s="1">
-        <v>1379.210000</v>
+        <v>1379.21</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.062000</v>
+        <v>-208.06200000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>23862.692344</v>
+        <v>23862.692343999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>6.628526</v>
+        <v>6.6285259999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1400.670000</v>
+        <v>1400.67</v>
       </c>
       <c r="AR19" s="1">
-        <v>-251.885000</v>
+        <v>-251.88499999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>23873.070138</v>
+        <v>23873.070137999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>6.631408</v>
+        <v>6.6314080000000004</v>
       </c>
       <c r="AV19" s="1">
-        <v>1425.060000</v>
+        <v>1425.06</v>
       </c>
       <c r="AW19" s="1">
-        <v>-311.950000</v>
+        <v>-311.95</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>23884.481099</v>
+        <v>23884.481099000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.634578</v>
+        <v>6.6345780000000003</v>
       </c>
       <c r="BA19" s="1">
-        <v>1444.240000</v>
+        <v>1444.24</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.088000</v>
+        <v>-364.08800000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>23895.509149</v>
+        <v>23895.509149000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>6.637641</v>
+        <v>6.6376410000000003</v>
       </c>
       <c r="BF19" s="1">
-        <v>1529.130000</v>
+        <v>1529.13</v>
       </c>
       <c r="BG19" s="1">
-        <v>-612.823000</v>
+        <v>-612.82299999999998</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>23906.903246</v>
+        <v>23906.903246000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.640806</v>
+        <v>6.6408060000000004</v>
       </c>
       <c r="BK19" s="1">
-        <v>1683.180000</v>
+        <v>1683.18</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1058.830000</v>
+        <v>-1058.83</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>23917.785795</v>
       </c>
       <c r="BO19" s="1">
-        <v>6.643829</v>
+        <v>6.6438290000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1977.230000</v>
+        <v>1977.23</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1831.460000</v>
+        <v>-1831.46</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>23928.453959</v>
+        <v>23928.453958999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>6.646793</v>
+        <v>6.6467929999999997</v>
       </c>
       <c r="BU19" s="1">
-        <v>2361.740000</v>
+        <v>2361.7399999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2722.080000</v>
+        <v>-2722.08</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>23939.274148</v>
       </c>
       <c r="BY19" s="1">
-        <v>6.649798</v>
+        <v>6.6497979999999997</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2846.610000</v>
+        <v>2846.61</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3698.310000</v>
+        <v>-3698.31</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>23952.230146</v>
+        <v>23952.230146000002</v>
       </c>
       <c r="CD19" s="1">
         <v>6.653397</v>
       </c>
       <c r="CE19" s="1">
-        <v>4253.710000</v>
+        <v>4253.71</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6043.830000</v>
+        <v>-6043.83</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>23779.962630</v>
+        <v>23779.962630000002</v>
       </c>
       <c r="B20" s="1">
-        <v>6.605545</v>
+        <v>6.6055450000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>1242.850000</v>
+        <v>1242.8499999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-310.770000</v>
+        <v>-310.77</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>23790.377164</v>
+        <v>23790.377164000001</v>
       </c>
       <c r="G20" s="1">
-        <v>6.608438</v>
+        <v>6.6084379999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>1268.390000</v>
+        <v>1268.3900000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-267.932000</v>
+        <v>-267.93200000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>23800.846187</v>
+        <v>23800.846186999999</v>
       </c>
       <c r="L20" s="1">
-        <v>6.611346</v>
+        <v>6.6113460000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1304.350000</v>
+        <v>1304.3499999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.888000</v>
+        <v>-202.88800000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>23811.758198</v>
       </c>
       <c r="Q20" s="1">
-        <v>6.614377</v>
+        <v>6.6143770000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>1316.120000</v>
+        <v>1316.12</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.556000</v>
+        <v>-184.55600000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>23821.930655</v>
       </c>
       <c r="V20" s="1">
-        <v>6.617203</v>
+        <v>6.6172029999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1329.000000</v>
+        <v>1329</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.904000</v>
+        <v>-170.904</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>23831.840727</v>
+        <v>23831.840726999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>6.619956</v>
+        <v>6.6199560000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>1346.060000</v>
+        <v>1346.06</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.480000</v>
+        <v>-168.48</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>23841.974484</v>
+        <v>23841.974483999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.622771</v>
+        <v>6.6227710000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>1358.740000</v>
+        <v>1358.74</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.199000</v>
+        <v>-178.19900000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>23852.521417</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.625700</v>
+        <v>6.6257000000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1379.190000</v>
+        <v>1379.19</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.055000</v>
+        <v>-208.05500000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>23863.068820</v>
+        <v>23863.06882</v>
       </c>
       <c r="AP20" s="1">
-        <v>6.628630</v>
+        <v>6.6286300000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1400.650000</v>
+        <v>1400.65</v>
       </c>
       <c r="AR20" s="1">
-        <v>-251.923000</v>
+        <v>-251.923</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>23873.741226</v>
+        <v>23873.741225999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.631595</v>
+        <v>6.6315949999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1425.010000</v>
+        <v>1425.01</v>
       </c>
       <c r="AW20" s="1">
-        <v>-311.937000</v>
+        <v>-311.93700000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>23884.882891</v>
+        <v>23884.882891000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.634690</v>
+        <v>6.63469</v>
       </c>
       <c r="BA20" s="1">
-        <v>1444.270000</v>
+        <v>1444.27</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.092000</v>
+        <v>-364.09199999999998</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>23895.923804</v>
+        <v>23895.923803999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.637757</v>
+        <v>6.6377569999999997</v>
       </c>
       <c r="BF20" s="1">
-        <v>1529.070000</v>
+        <v>1529.07</v>
       </c>
       <c r="BG20" s="1">
-        <v>-612.880000</v>
+        <v>-612.88</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>23907.277725</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.640910</v>
+        <v>6.6409099999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1683.180000</v>
+        <v>1683.18</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1058.880000</v>
+        <v>-1058.8800000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>23918.185267</v>
+        <v>23918.185267000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>6.643940</v>
+        <v>6.6439399999999997</v>
       </c>
       <c r="BP20" s="1">
-        <v>1977.190000</v>
+        <v>1977.19</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1831.380000</v>
+        <v>-1831.38</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>23928.882007</v>
       </c>
       <c r="BT20" s="1">
-        <v>6.646912</v>
+        <v>6.6469120000000004</v>
       </c>
       <c r="BU20" s="1">
-        <v>2362.290000</v>
+        <v>2362.29</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2722.050000</v>
+        <v>-2722.05</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>23939.728483</v>
+        <v>23939.728482999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>6.649925</v>
+        <v>6.6499249999999996</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2846.060000</v>
+        <v>2846.06</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3698.650000</v>
+        <v>-3698.65</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>23952.749457</v>
+        <v>23952.749457000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>6.653542</v>
+        <v>6.6535419999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>4249.930000</v>
+        <v>4249.93</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6059.530000</v>
+        <v>-6059.53</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>23780.303915</v>
       </c>
       <c r="B21" s="1">
-        <v>6.605640</v>
+        <v>6.6056400000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>1243.130000</v>
+        <v>1243.1300000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-310.394000</v>
+        <v>-310.39400000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>23790.720855</v>
       </c>
       <c r="G21" s="1">
-        <v>6.608534</v>
+        <v>6.6085339999999997</v>
       </c>
       <c r="H21" s="1">
-        <v>1268.560000</v>
+        <v>1268.56</v>
       </c>
       <c r="I21" s="1">
-        <v>-266.684000</v>
+        <v>-266.68400000000003</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>23801.536122</v>
+        <v>23801.536122000001</v>
       </c>
       <c r="L21" s="1">
-        <v>6.611538</v>
+        <v>6.6115380000000004</v>
       </c>
       <c r="M21" s="1">
-        <v>1304.490000</v>
+        <v>1304.49</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.045000</v>
+        <v>-203.04499999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>23812.106396</v>
+        <v>23812.106395999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>6.614474</v>
+        <v>6.6144740000000004</v>
       </c>
       <c r="R21" s="1">
-        <v>1316.120000</v>
+        <v>1316.12</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.582000</v>
+        <v>-184.58199999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>23822.272894</v>
+        <v>23822.272894000002</v>
       </c>
       <c r="V21" s="1">
-        <v>6.617298</v>
+        <v>6.6172979999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1329.050000</v>
+        <v>1329.05</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.870000</v>
+        <v>-170.87</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>23832.190401</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.620053</v>
+        <v>6.6200530000000004</v>
       </c>
       <c r="AB21" s="1">
-        <v>1346.060000</v>
+        <v>1346.06</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.462000</v>
+        <v>-168.46199999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>23842.316723</v>
       </c>
       <c r="AF21" s="1">
-        <v>6.622866</v>
+        <v>6.6228660000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1358.800000</v>
+        <v>1358.8</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.178000</v>
+        <v>-178.178</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>23853.178614</v>
@@ -5469,572 +5885,572 @@
         <v>6.625883</v>
       </c>
       <c r="AL21" s="1">
-        <v>1379.190000</v>
+        <v>1379.19</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.089000</v>
+        <v>-208.089</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>23863.508263</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.628752</v>
+        <v>6.6287520000000004</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1400.660000</v>
+        <v>1400.66</v>
       </c>
       <c r="AR21" s="1">
-        <v>-251.903000</v>
+        <v>-251.90299999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>23874.195098</v>
       </c>
       <c r="AU21" s="1">
-        <v>6.631721</v>
+        <v>6.6317209999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>1425.080000</v>
+        <v>1425.08</v>
       </c>
       <c r="AW21" s="1">
-        <v>-311.936000</v>
+        <v>-311.93599999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>23885.264779</v>
+        <v>23885.264779000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.634796</v>
+        <v>6.6347959999999997</v>
       </c>
       <c r="BA21" s="1">
-        <v>1444.240000</v>
+        <v>1444.24</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.101000</v>
+        <v>-364.101</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>23896.314689</v>
+        <v>23896.314688999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.637865</v>
+        <v>6.6378649999999997</v>
       </c>
       <c r="BF21" s="1">
-        <v>1529.090000</v>
+        <v>1529.09</v>
       </c>
       <c r="BG21" s="1">
-        <v>-612.865000</v>
+        <v>-612.86500000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>23907.653197</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.641015</v>
+        <v>6.6410150000000003</v>
       </c>
       <c r="BK21" s="1">
-        <v>1683.250000</v>
+        <v>1683.25</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1058.880000</v>
+        <v>-1058.8800000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>23918.606848</v>
+        <v>23918.606847999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.644057</v>
+        <v>6.6440570000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1977.320000</v>
+        <v>1977.32</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1831.460000</v>
+        <v>-1831.46</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>23929.301597</v>
+        <v>23929.301597000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>6.647028</v>
+        <v>6.6470279999999997</v>
       </c>
       <c r="BU21" s="1">
-        <v>2361.850000</v>
+        <v>2361.85</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2721.520000</v>
+        <v>-2721.52</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>23940.176370</v>
+        <v>23940.176370000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>6.650049</v>
+        <v>6.6500490000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2845.220000</v>
+        <v>2845.22</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3698.230000</v>
+        <v>-3698.23</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>23953.267778</v>
+        <v>23953.267778000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>6.653685</v>
+        <v>6.6536850000000003</v>
       </c>
       <c r="CE21" s="1">
-        <v>4247.400000</v>
+        <v>4247.3999999999996</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6054.460000</v>
+        <v>-6054.46</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>23780.988853</v>
+        <v>23780.988852999999</v>
       </c>
       <c r="B22" s="1">
-        <v>6.605830</v>
+        <v>6.6058300000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1242.510000</v>
+        <v>1242.51</v>
       </c>
       <c r="D22" s="1">
-        <v>-310.680000</v>
+        <v>-310.68</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>23791.413556</v>
       </c>
       <c r="G22" s="1">
-        <v>6.608726</v>
+        <v>6.6087259999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1268.050000</v>
+        <v>1268.05</v>
       </c>
       <c r="I22" s="1">
-        <v>-268.602000</v>
+        <v>-268.60199999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>23801.884312</v>
+        <v>23801.884311999998</v>
       </c>
       <c r="L22" s="1">
-        <v>6.611635</v>
+        <v>6.6116349999999997</v>
       </c>
       <c r="M22" s="1">
-        <v>1304.850000</v>
+        <v>1304.8499999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.835000</v>
+        <v>-202.83500000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>23812.457068</v>
       </c>
       <c r="Q22" s="1">
-        <v>6.614571</v>
+        <v>6.6145709999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>1316.090000</v>
+        <v>1316.09</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.622000</v>
+        <v>-184.62200000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>23822.616621</v>
+        <v>23822.616621000001</v>
       </c>
       <c r="V22" s="1">
         <v>6.617394</v>
       </c>
       <c r="W22" s="1">
-        <v>1329.080000</v>
+        <v>1329.08</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.774000</v>
+        <v>-170.774</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>23832.841121</v>
+        <v>23832.841121000001</v>
       </c>
       <c r="AA22" s="1">
         <v>6.620234</v>
       </c>
       <c r="AB22" s="1">
-        <v>1346.180000</v>
+        <v>1346.18</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.497000</v>
+        <v>-168.49700000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>23842.963972</v>
+        <v>23842.963972000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>6.623046</v>
+        <v>6.6230460000000004</v>
       </c>
       <c r="AG22" s="1">
-        <v>1358.750000</v>
+        <v>1358.75</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.199000</v>
+        <v>-178.19900000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>23853.565989</v>
+        <v>23853.565988999999</v>
       </c>
       <c r="AK22" s="1">
         <v>6.625991</v>
       </c>
       <c r="AL22" s="1">
-        <v>1379.150000</v>
+        <v>1379.15</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.100000</v>
+        <v>-208.1</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>23863.789991</v>
+        <v>23863.789991000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.628831</v>
+        <v>6.6288309999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1400.680000</v>
+        <v>1400.68</v>
       </c>
       <c r="AR22" s="1">
-        <v>-251.905000</v>
+        <v>-251.905</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>23874.563122</v>
       </c>
       <c r="AU22" s="1">
-        <v>6.631823</v>
+        <v>6.6318229999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1425.010000</v>
+        <v>1425.01</v>
       </c>
       <c r="AW22" s="1">
-        <v>-311.948000</v>
+        <v>-311.94799999999998</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>23885.627386</v>
       </c>
       <c r="AZ22" s="1">
-        <v>6.634896</v>
+        <v>6.6348960000000003</v>
       </c>
       <c r="BA22" s="1">
-        <v>1444.240000</v>
+        <v>1444.24</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.126000</v>
+        <v>-364.12599999999998</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>23896.674784</v>
+        <v>23896.674783999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>6.637965</v>
+        <v>6.6379650000000003</v>
       </c>
       <c r="BF22" s="1">
-        <v>1529.150000</v>
+        <v>1529.15</v>
       </c>
       <c r="BG22" s="1">
-        <v>-612.858000</v>
+        <v>-612.85799999999995</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>23908.071820</v>
+        <v>23908.071820000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>6.641131</v>
+        <v>6.6411309999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1683.180000</v>
+        <v>1683.18</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1058.830000</v>
+        <v>-1058.83</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>23919.004638</v>
+        <v>23919.004637999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>6.644168</v>
+        <v>6.6441679999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1977.210000</v>
+        <v>1977.21</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1831.350000</v>
+        <v>-1831.35</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>23929.711312</v>
+        <v>23929.711311999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.647142</v>
+        <v>6.6471419999999997</v>
       </c>
       <c r="BU22" s="1">
-        <v>2362.360000</v>
+        <v>2362.36</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2721.630000</v>
+        <v>-2721.63</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>23940.607427</v>
+        <v>23940.607426999999</v>
       </c>
       <c r="BY22" s="1">
         <v>6.650169</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2845.770000</v>
+        <v>2845.77</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3698.520000</v>
+        <v>-3698.52</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>23953.818833</v>
+        <v>23953.818833000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>6.653839</v>
+        <v>6.6538389999999996</v>
       </c>
       <c r="CE22" s="1">
-        <v>4251.930000</v>
+        <v>4251.93</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6046.970000</v>
+        <v>-6046.97</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>23781.333076</v>
+        <v>23781.333075999999</v>
       </c>
       <c r="B23" s="1">
-        <v>6.605926</v>
+        <v>6.6059260000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>1242.790000</v>
+        <v>1242.79</v>
       </c>
       <c r="D23" s="1">
-        <v>-310.911000</v>
+        <v>-310.911</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>23791.754519</v>
+        <v>23791.754518999998</v>
       </c>
       <c r="G23" s="1">
-        <v>6.608821</v>
+        <v>6.6088209999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1269.100000</v>
+        <v>1269.0999999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-267.861000</v>
+        <v>-267.86099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>23802.229544</v>
+        <v>23802.229544000002</v>
       </c>
       <c r="L23" s="1">
-        <v>6.611730</v>
+        <v>6.6117299999999997</v>
       </c>
       <c r="M23" s="1">
-        <v>1304.620000</v>
+        <v>1304.6199999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-203.064000</v>
+        <v>-203.06399999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>23813.115226</v>
+        <v>23813.115226000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>6.614754</v>
+        <v>6.6147539999999996</v>
       </c>
       <c r="R23" s="1">
-        <v>1315.990000</v>
+        <v>1315.99</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.602000</v>
+        <v>-184.602</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>23823.273293</v>
+        <v>23823.273292999998</v>
       </c>
       <c r="V23" s="1">
-        <v>6.617576</v>
+        <v>6.6175759999999997</v>
       </c>
       <c r="W23" s="1">
-        <v>1328.960000</v>
+        <v>1328.96</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.796000</v>
+        <v>-170.79599999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>23833.232961</v>
+        <v>23833.232961000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>6.620342</v>
+        <v>6.6203419999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1345.990000</v>
+        <v>1345.99</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.563000</v>
+        <v>-168.56299999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>23843.347378</v>
+        <v>23843.347377999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>6.623152</v>
+        <v>6.6231520000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1358.780000</v>
+        <v>1358.78</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.267000</v>
+        <v>-178.267</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>23853.913653</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.626087</v>
+        <v>6.6260870000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1379.220000</v>
+        <v>1379.22</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.101000</v>
+        <v>-208.101</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>23864.153558</v>
+        <v>23864.153558000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>6.628932</v>
+        <v>6.6289319999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1400.670000</v>
+        <v>1400.67</v>
       </c>
       <c r="AR23" s="1">
-        <v>-251.941000</v>
+        <v>-251.941</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>23874.926666</v>
+        <v>23874.926665999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>6.631924</v>
+        <v>6.6319239999999997</v>
       </c>
       <c r="AV23" s="1">
-        <v>1425.030000</v>
+        <v>1425.03</v>
       </c>
       <c r="AW23" s="1">
-        <v>-311.914000</v>
+        <v>-311.91399999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>23886.042009</v>
+        <v>23886.042009000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>6.635012</v>
+        <v>6.6350119999999997</v>
       </c>
       <c r="BA23" s="1">
-        <v>1444.250000</v>
+        <v>1444.25</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.117000</v>
+        <v>-364.11700000000002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>23897.097339</v>
@@ -6043,28 +6459,28 @@
         <v>6.638083</v>
       </c>
       <c r="BF23" s="1">
-        <v>1529.110000</v>
+        <v>1529.11</v>
       </c>
       <c r="BG23" s="1">
-        <v>-612.798000</v>
+        <v>-612.798</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>23908.425468</v>
+        <v>23908.425468000001</v>
       </c>
       <c r="BJ23" s="1">
         <v>6.641229</v>
       </c>
       <c r="BK23" s="1">
-        <v>1683.200000</v>
+        <v>1683.2</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1058.790000</v>
+        <v>-1058.79</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>23919.426733</v>
@@ -6073,831 +6489,832 @@
         <v>6.644285</v>
       </c>
       <c r="BP23" s="1">
-        <v>1977.300000</v>
+        <v>1977.3</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1831.310000</v>
+        <v>-1831.31</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>23930.125471</v>
+        <v>23930.125470999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.647257</v>
+        <v>6.6472569999999997</v>
       </c>
       <c r="BU23" s="1">
-        <v>2362.250000</v>
+        <v>2362.25</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2721.100000</v>
+        <v>-2721.1</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>23941.031473</v>
+        <v>23941.031472999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>6.650287</v>
+        <v>6.6502869999999996</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2845.730000</v>
+        <v>2845.73</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3697.950000</v>
+        <v>-3697.95</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>23954.347071</v>
       </c>
       <c r="CD23" s="1">
-        <v>6.653985</v>
+        <v>6.6539849999999996</v>
       </c>
       <c r="CE23" s="1">
-        <v>4254.460000</v>
+        <v>4254.46</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6061.230000</v>
+        <v>-6061.23</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>23781.673364</v>
+        <v>23781.673363999998</v>
       </c>
       <c r="B24" s="1">
-        <v>6.606020</v>
+        <v>6.60602</v>
       </c>
       <c r="C24" s="1">
-        <v>1242.770000</v>
+        <v>1242.77</v>
       </c>
       <c r="D24" s="1">
-        <v>-310.625000</v>
+        <v>-310.625</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>23792.100725</v>
       </c>
       <c r="G24" s="1">
-        <v>6.608917</v>
+        <v>6.6089169999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1268.240000</v>
+        <v>1268.24</v>
       </c>
       <c r="I24" s="1">
-        <v>-267.377000</v>
+        <v>-267.37700000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>23802.882761</v>
+        <v>23802.882761000001</v>
       </c>
       <c r="L24" s="1">
-        <v>6.611912</v>
+        <v>6.6119120000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.000000</v>
+        <v>1305</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.996000</v>
+        <v>-202.99600000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>23813.502601</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.614862</v>
+        <v>6.6148619999999996</v>
       </c>
       <c r="R24" s="1">
-        <v>1316.010000</v>
+        <v>1316.01</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.561000</v>
+        <v>-184.56100000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>23823.647308</v>
       </c>
       <c r="V24" s="1">
-        <v>6.617680</v>
+        <v>6.61768</v>
       </c>
       <c r="W24" s="1">
-        <v>1328.910000</v>
+        <v>1328.91</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.838000</v>
+        <v>-170.83799999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>23833.582144</v>
       </c>
       <c r="AA24" s="1">
-        <v>6.620439</v>
+        <v>6.6204390000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>1345.980000</v>
+        <v>1345.98</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.542000</v>
+        <v>-168.542</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>23843.691105</v>
+        <v>23843.691105000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.623248</v>
+        <v>6.6232480000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>1358.750000</v>
+        <v>1358.75</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.177000</v>
+        <v>-178.17699999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>23854.264853</v>
+        <v>23854.264853000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>6.626185</v>
+        <v>6.6261850000000004</v>
       </c>
       <c r="AL24" s="1">
-        <v>1379.180000</v>
+        <v>1379.18</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.078000</v>
+        <v>-208.078</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>23864.574662</v>
+        <v>23864.574661999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.629049</v>
+        <v>6.6290490000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1400.670000</v>
+        <v>1400.67</v>
       </c>
       <c r="AR24" s="1">
-        <v>-251.930000</v>
+        <v>-251.93</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>23875.347271</v>
+        <v>23875.347270999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>6.632041</v>
+        <v>6.6320410000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1425.050000</v>
+        <v>1425.05</v>
       </c>
       <c r="AW24" s="1">
-        <v>-311.918000</v>
+        <v>-311.91800000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>23886.344111</v>
+        <v>23886.344110999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>6.635096</v>
+        <v>6.6350959999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1444.260000</v>
+        <v>1444.26</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.110000</v>
+        <v>-364.11</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>23897.394443</v>
+        <v>23897.394443000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>6.638165</v>
+        <v>6.6381649999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1529.110000</v>
+        <v>1529.11</v>
       </c>
       <c r="BG24" s="1">
-        <v>-612.819000</v>
+        <v>-612.81899999999996</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>23908.798955</v>
+        <v>23908.798954999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>6.641333</v>
+        <v>6.6413330000000004</v>
       </c>
       <c r="BK24" s="1">
-        <v>1683.230000</v>
+        <v>1683.23</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1058.870000</v>
+        <v>-1058.8699999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>23919.823533</v>
+        <v>23919.823532999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>6.644395</v>
+        <v>6.6443950000000003</v>
       </c>
       <c r="BP24" s="1">
-        <v>1977.240000</v>
+        <v>1977.24</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1831.520000</v>
+        <v>-1831.52</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>23930.536654</v>
       </c>
       <c r="BT24" s="1">
-        <v>6.647371</v>
+        <v>6.6473709999999997</v>
       </c>
       <c r="BU24" s="1">
-        <v>2362.730000</v>
+        <v>2362.73</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2721.310000</v>
+        <v>-2721.31</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>23941.445632</v>
+        <v>23941.445631999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>6.650402</v>
+        <v>6.6504019999999997</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2846.460000</v>
+        <v>2846.46</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3698.130000</v>
+        <v>-3698.13</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>23954.866383</v>
       </c>
       <c r="CD24" s="1">
-        <v>6.654130</v>
+        <v>6.6541300000000003</v>
       </c>
       <c r="CE24" s="1">
-        <v>4270.680000</v>
+        <v>4270.68</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6057.220000</v>
+        <v>-6057.22</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>23782.316146</v>
+        <v>23782.316146000001</v>
       </c>
       <c r="B25" s="1">
-        <v>6.606199</v>
+        <v>6.6061990000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1242.880000</v>
+        <v>1242.8800000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-310.591000</v>
+        <v>-310.59100000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>23792.752009</v>
       </c>
       <c r="G25" s="1">
-        <v>6.609098</v>
+        <v>6.6090980000000004</v>
       </c>
       <c r="H25" s="1">
-        <v>1269.510000</v>
+        <v>1269.51</v>
       </c>
       <c r="I25" s="1">
-        <v>-268.769000</v>
+        <v>-268.76900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>23803.268152</v>
+        <v>23803.268152000001</v>
       </c>
       <c r="L25" s="1">
-        <v>6.612019</v>
+        <v>6.6120190000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1304.470000</v>
+        <v>1304.47</v>
       </c>
       <c r="N25" s="1">
-        <v>-202.823000</v>
+        <v>-202.82300000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>23813.850793</v>
+        <v>23813.850793000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.614959</v>
+        <v>6.6149589999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>1316.120000</v>
+        <v>1316.12</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.522000</v>
+        <v>-184.52199999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>23823.991995</v>
       </c>
       <c r="V25" s="1">
-        <v>6.617776</v>
+        <v>6.6177760000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1328.950000</v>
+        <v>1328.95</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.955000</v>
+        <v>-170.95500000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>23833.930368</v>
+        <v>23833.930368000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>6.620536</v>
+        <v>6.6205360000000004</v>
       </c>
       <c r="AB25" s="1">
-        <v>1345.930000</v>
+        <v>1345.93</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.233000</v>
+        <v>-168.233</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>23844.036817</v>
       </c>
       <c r="AF25" s="1">
-        <v>6.623344</v>
+        <v>6.6233440000000003</v>
       </c>
       <c r="AG25" s="1">
-        <v>1358.730000</v>
+        <v>1358.73</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.244000</v>
+        <v>-178.244</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>23854.680467</v>
+        <v>23854.680466999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>6.626300</v>
+        <v>6.6262999999999996</v>
       </c>
       <c r="AL25" s="1">
-        <v>1379.180000</v>
+        <v>1379.18</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.098000</v>
+        <v>-208.09800000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>23864.871765</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.629131</v>
+        <v>6.6291310000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1400.680000</v>
+        <v>1400.68</v>
       </c>
       <c r="AR25" s="1">
-        <v>-251.906000</v>
+        <v>-251.90600000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>23875.657769</v>
+        <v>23875.657769000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>6.632127</v>
+        <v>6.6321269999999997</v>
       </c>
       <c r="AV25" s="1">
-        <v>1425.040000</v>
+        <v>1425.04</v>
       </c>
       <c r="AW25" s="1">
-        <v>-311.939000</v>
+        <v>-311.93900000000002</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>23886.705169</v>
+        <v>23886.705169000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>6.635196</v>
+        <v>6.6351959999999996</v>
       </c>
       <c r="BA25" s="1">
-        <v>1444.260000</v>
+        <v>1444.26</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.061000</v>
+        <v>-364.06099999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>23897.769455</v>
+        <v>23897.769455000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>6.638269</v>
+        <v>6.6382690000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1529.100000</v>
+        <v>1529.1</v>
       </c>
       <c r="BG25" s="1">
-        <v>-612.826000</v>
+        <v>-612.82600000000002</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>23909.175952</v>
+        <v>23909.175952000001</v>
       </c>
       <c r="BJ25" s="1">
         <v>6.641438</v>
       </c>
       <c r="BK25" s="1">
-        <v>1683.150000</v>
+        <v>1683.15</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1058.850000</v>
+        <v>-1058.8499999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>23920.242156</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.644512</v>
+        <v>6.6445119999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1977.240000</v>
+        <v>1977.24</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1831.190000</v>
+        <v>-1831.19</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>23930.952766</v>
+        <v>23930.952765999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>6.647487</v>
+        <v>6.6474869999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2363.000000</v>
+        <v>2363</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2721.190000</v>
+        <v>-2721.19</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>23941.907904</v>
       </c>
       <c r="BY25" s="1">
-        <v>6.650530</v>
+        <v>6.6505299999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2845.730000</v>
+        <v>2845.73</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3697.820000</v>
+        <v>-3697.82</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>23955.381231</v>
+        <v>23955.381230999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>6.654273</v>
+        <v>6.6542729999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4264.420000</v>
+        <v>4264.42</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6040.120000</v>
+        <v>-6040.12</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>23782.697074</v>
       </c>
       <c r="B26" s="1">
-        <v>6.606305</v>
+        <v>6.6063049999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1242.440000</v>
+        <v>1242.44</v>
       </c>
       <c r="D26" s="1">
-        <v>-310.503000</v>
+        <v>-310.50299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>23793.131908</v>
+        <v>23793.131907999999</v>
       </c>
       <c r="G26" s="1">
-        <v>6.609203</v>
+        <v>6.6092029999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1268.780000</v>
+        <v>1268.78</v>
       </c>
       <c r="I26" s="1">
-        <v>-268.003000</v>
+        <v>-268.00299999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>23803.613368</v>
+        <v>23803.613367999998</v>
       </c>
       <c r="L26" s="1">
-        <v>6.612115</v>
+        <v>6.6121150000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>1304.580000</v>
+        <v>1304.58</v>
       </c>
       <c r="N26" s="1">
-        <v>-203.137000</v>
+        <v>-203.137</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>23814.200473</v>
+        <v>23814.200473000001</v>
       </c>
       <c r="Q26" s="1">
         <v>6.615056</v>
       </c>
       <c r="R26" s="1">
-        <v>1316.160000</v>
+        <v>1316.16</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.577000</v>
+        <v>-184.577</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>23824.341179</v>
+        <v>23824.341178999999</v>
       </c>
       <c r="V26" s="1">
-        <v>6.617873</v>
+        <v>6.6178730000000003</v>
       </c>
       <c r="W26" s="1">
-        <v>1328.930000</v>
+        <v>1328.93</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.976000</v>
+        <v>-170.976</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>23834.342513</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.620651</v>
+        <v>6.6206509999999996</v>
       </c>
       <c r="AB26" s="1">
-        <v>1345.800000</v>
+        <v>1345.8</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.587000</v>
+        <v>-168.58699999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>23844.456929</v>
       </c>
       <c r="AF26" s="1">
-        <v>6.623460</v>
+        <v>6.6234599999999997</v>
       </c>
       <c r="AG26" s="1">
-        <v>1358.770000</v>
+        <v>1358.77</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.228000</v>
+        <v>-178.22800000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>23854.975091</v>
       </c>
       <c r="AK26" s="1">
-        <v>6.626382</v>
+        <v>6.6263820000000004</v>
       </c>
       <c r="AL26" s="1">
-        <v>1379.170000</v>
+        <v>1379.17</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.044000</v>
+        <v>-208.04400000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>23865.233349</v>
+        <v>23865.233348999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>6.629231</v>
+        <v>6.6292309999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1400.650000</v>
+        <v>1400.65</v>
       </c>
       <c r="AR26" s="1">
-        <v>-251.903000</v>
+        <v>-251.90299999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>23876.023320</v>
+        <v>23876.02332</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.632229</v>
+        <v>6.6322289999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>1425.070000</v>
+        <v>1425.07</v>
       </c>
       <c r="AW26" s="1">
-        <v>-311.944000</v>
+        <v>-311.94400000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>23887.063272</v>
+        <v>23887.063271999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>6.635295</v>
+        <v>6.6352950000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1444.230000</v>
+        <v>1444.23</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.091000</v>
+        <v>-364.09100000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>23898.454050</v>
+        <v>23898.45405</v>
       </c>
       <c r="BE26" s="1">
-        <v>6.638459</v>
+        <v>6.6384590000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1529.050000</v>
+        <v>1529.05</v>
       </c>
       <c r="BG26" s="1">
-        <v>-612.870000</v>
+        <v>-612.87</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>23909.927850</v>
+        <v>23909.92785</v>
       </c>
       <c r="BJ26" s="1">
-        <v>6.641647</v>
+        <v>6.6416469999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1683.200000</v>
+        <v>1683.2</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1058.750000</v>
+        <v>-1058.75</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>23920.641932</v>
+        <v>23920.641931999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>6.644623</v>
+        <v>6.6446230000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1977.240000</v>
+        <v>1977.24</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1831.280000</v>
+        <v>-1831.28</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>23931.392719</v>
+        <v>23931.392718999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>6.647609</v>
+        <v>6.6476090000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2363.280000</v>
+        <v>2363.2800000000002</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2721.050000</v>
+        <v>-2721.05</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>23942.321103</v>
+        <v>23942.321102999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>6.650645</v>
+        <v>6.6506449999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2845.770000</v>
+        <v>2845.77</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3698.420000</v>
+        <v>-3698.42</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>23956.204589</v>
+        <v>23956.204589000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>6.654501</v>
+        <v>6.6545009999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>4270.570000</v>
+        <v>4270.57</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6054.640000</v>
+        <v>-6054.64</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>